--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_15_36.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_15_36.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3051047.313720713</v>
+        <v>3048635.41964159</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>10226343.59817755</v>
+        <v>10226343.59817754</v>
       </c>
     </row>
     <row r="8">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8328356.064700632</v>
+        <v>8328356.064700635</v>
       </c>
     </row>
     <row r="11">
@@ -1181,7 +1181,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>6.05642108929943</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1190,16 +1190,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>6.05642108929943</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="Y8" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1218,61 +1218,61 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" t="n">
+        <v>6.876045741711437</v>
+      </c>
+      <c r="S9" t="n">
+        <v>0</v>
+      </c>
+      <c r="T9" t="n">
+        <v>0</v>
+      </c>
+      <c r="U9" t="n">
         <v>6.056421089299432</v>
       </c>
-      <c r="F9" t="n">
+      <c r="V9" t="n">
         <v>6.876045741711437</v>
       </c>
-      <c r="G9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
+      <c r="W9" t="n">
         <v>6.876045741711437</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>0</v>
-      </c>
-      <c r="R9" t="n">
-        <v>0</v>
-      </c>
-      <c r="S9" t="n">
-        <v>0</v>
-      </c>
-      <c r="T9" t="n">
-        <v>0</v>
-      </c>
-      <c r="U9" t="n">
-        <v>6.876045741711437</v>
-      </c>
-      <c r="V9" t="n">
-        <v>0</v>
-      </c>
-      <c r="W9" t="n">
-        <v>0</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
@@ -1297,67 +1297,67 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0</v>
+      </c>
+      <c r="R10" t="n">
+        <v>6.876045741711437</v>
+      </c>
+      <c r="S10" t="n">
+        <v>6.876045741711437</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0</v>
+      </c>
+      <c r="U10" t="n">
+        <v>0</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="n">
         <v>6.056421089299432</v>
       </c>
-      <c r="F10" t="n">
-        <v>0</v>
-      </c>
-      <c r="G10" t="n">
+      <c r="X10" t="n">
         <v>6.876045741711437</v>
       </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>0</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>0</v>
-      </c>
-      <c r="R10" t="n">
-        <v>0</v>
-      </c>
-      <c r="S10" t="n">
-        <v>0</v>
-      </c>
-      <c r="T10" t="n">
-        <v>0</v>
-      </c>
-      <c r="U10" t="n">
-        <v>0</v>
-      </c>
-      <c r="V10" t="n">
-        <v>6.876045741711437</v>
-      </c>
-      <c r="W10" t="n">
-        <v>0</v>
-      </c>
-      <c r="X10" t="n">
-        <v>0</v>
-      </c>
       <c r="Y10" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1367,25 +1367,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>258.4257515099015</v>
+        <v>335.758705044888</v>
       </c>
       <c r="C11" t="n">
         <v>318.297755152415</v>
       </c>
       <c r="D11" t="n">
-        <v>307.7079050020904</v>
+        <v>307.7079050020903</v>
       </c>
       <c r="E11" t="n">
-        <v>334.9552334536692</v>
+        <v>311.7236160152333</v>
       </c>
       <c r="F11" t="n">
-        <v>359.9009091231189</v>
+        <v>359.9009091231188</v>
       </c>
       <c r="G11" t="n">
-        <v>363.9465890348609</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>247.6326277687279</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>62.21262516958326</v>
       </c>
       <c r="T11" t="n">
         <v>156.9428335210276</v>
@@ -1430,7 +1430,7 @@
         <v>280.7771218515423</v>
       </c>
       <c r="W11" t="n">
-        <v>302.2658320988205</v>
+        <v>302.2658320988204</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -1528,25 +1528,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C13" t="n">
-        <v>120.2716844800353</v>
+        <v>120.2716844800352</v>
       </c>
       <c r="D13" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E13" t="n">
-        <v>99.45882602797661</v>
+        <v>99.45882602797658</v>
       </c>
       <c r="F13" t="n">
-        <v>98.44591140433869</v>
+        <v>98.44591140433866</v>
       </c>
       <c r="G13" t="n">
-        <v>119.0506716404357</v>
+        <v>119.0506716404356</v>
       </c>
       <c r="H13" t="n">
-        <v>97.77987829572822</v>
+        <v>97.7798782957282</v>
       </c>
       <c r="I13" t="n">
-        <v>49.37728379124555</v>
+        <v>49.37728379124552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>41.95701605145479</v>
+        <v>41.95701605145476</v>
       </c>
       <c r="S13" t="n">
         <v>142.7938887128493</v>
@@ -1607,22 +1607,22 @@
         <v>335.758705044888</v>
       </c>
       <c r="C14" t="n">
-        <v>318.297755152415</v>
+        <v>275.9723987444507</v>
       </c>
       <c r="D14" t="n">
-        <v>307.7079050020904</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>334.9552334536692</v>
       </c>
       <c r="F14" t="n">
-        <v>359.9009091231189</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>363.9465890348608</v>
       </c>
       <c r="H14" t="n">
-        <v>236.600279724083</v>
+        <v>247.6326277687279</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>62.21262516958328</v>
+        <v>62.21262516958326</v>
       </c>
       <c r="T14" t="n">
         <v>156.9428335210276</v>
@@ -1667,10 +1667,10 @@
         <v>280.7771218515423</v>
       </c>
       <c r="W14" t="n">
-        <v>302.2658320988205</v>
+        <v>302.2658320988204</v>
       </c>
       <c r="X14" t="n">
-        <v>322.7559640598765</v>
+        <v>322.7559640598764</v>
       </c>
       <c r="Y14" t="n">
         <v>339.262802037461</v>
@@ -1701,10 +1701,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1765,25 +1765,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C16" t="n">
-        <v>120.2716844800353</v>
+        <v>120.2716844800352</v>
       </c>
       <c r="D16" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E16" t="n">
-        <v>99.45882602797661</v>
+        <v>99.45882602797658</v>
       </c>
       <c r="F16" t="n">
-        <v>98.44591140433869</v>
+        <v>98.44591140433866</v>
       </c>
       <c r="G16" t="n">
-        <v>119.0506716404357</v>
+        <v>119.0506716404356</v>
       </c>
       <c r="H16" t="n">
-        <v>97.77987829572822</v>
+        <v>97.7798782957282</v>
       </c>
       <c r="I16" t="n">
-        <v>49.37728379124554</v>
+        <v>49.37728379124552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>41.95701605145477</v>
+        <v>41.95701605145476</v>
       </c>
       <c r="S16" t="n">
         <v>142.7938887128493</v>
@@ -1841,25 +1841,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>315.7128114400169</v>
+        <v>307.6021190136761</v>
       </c>
       <c r="C17" t="n">
-        <v>298.251861547544</v>
+        <v>298.2518615475441</v>
       </c>
       <c r="D17" t="n">
-        <v>287.6620113972193</v>
+        <v>287.6620113972195</v>
       </c>
       <c r="E17" t="n">
-        <v>314.9093398487981</v>
+        <v>314.9093398487983</v>
       </c>
       <c r="F17" t="n">
-        <v>339.8550155182478</v>
+        <v>339.855015518248</v>
       </c>
       <c r="G17" t="n">
-        <v>343.9006954299898</v>
+        <v>343.90069542999</v>
       </c>
       <c r="H17" t="n">
-        <v>227.5867341638568</v>
+        <v>227.586734163857</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,25 +1892,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>42.16673156471224</v>
+        <v>42.16673156471235</v>
       </c>
       <c r="T17" t="n">
-        <v>136.8969399161566</v>
+        <v>136.8969399161567</v>
       </c>
       <c r="U17" t="n">
-        <v>183.9741417354384</v>
+        <v>183.9741417354385</v>
       </c>
       <c r="V17" t="n">
-        <v>252.6205358203272</v>
+        <v>260.7312282466714</v>
       </c>
       <c r="W17" t="n">
-        <v>282.2199384939494</v>
+        <v>282.2199384939495</v>
       </c>
       <c r="X17" t="n">
-        <v>302.7100704550054</v>
+        <v>302.7100704550056</v>
       </c>
       <c r="Y17" t="n">
-        <v>319.21690843259</v>
+        <v>319.2169084325901</v>
       </c>
     </row>
     <row r="18">
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>112.8109499584737</v>
+        <v>112.8109499584738</v>
       </c>
       <c r="C19" t="n">
-        <v>100.2257908751642</v>
+        <v>100.2257908751643</v>
       </c>
       <c r="D19" t="n">
-        <v>81.59444279474874</v>
+        <v>81.59444279474887</v>
       </c>
       <c r="E19" t="n">
-        <v>79.41293242310556</v>
+        <v>79.41293242310569</v>
       </c>
       <c r="F19" t="n">
-        <v>78.40001779946763</v>
+        <v>78.40001779946776</v>
       </c>
       <c r="G19" t="n">
-        <v>99.00477803556461</v>
+        <v>99.00477803556474</v>
       </c>
       <c r="H19" t="n">
-        <v>77.73398469085717</v>
+        <v>77.7339846908573</v>
       </c>
       <c r="I19" t="n">
-        <v>29.3313901863745</v>
+        <v>29.33139018637463</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,28 +2047,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>21.91112244658373</v>
+        <v>21.91112244658386</v>
       </c>
       <c r="S19" t="n">
-        <v>122.7479951079783</v>
+        <v>122.7479951079784</v>
       </c>
       <c r="T19" t="n">
-        <v>152.5279190527056</v>
+        <v>152.5279190527057</v>
       </c>
       <c r="U19" t="n">
-        <v>219.1908079821492</v>
+        <v>219.1908079821494</v>
       </c>
       <c r="V19" t="n">
-        <v>185.1166131003644</v>
+        <v>185.1166131003645</v>
       </c>
       <c r="W19" t="n">
-        <v>219.5019681131274</v>
+        <v>219.5019681131275</v>
       </c>
       <c r="X19" t="n">
-        <v>158.6886251655735</v>
+        <v>158.6886251655737</v>
       </c>
       <c r="Y19" t="n">
-        <v>151.5636231286312</v>
+        <v>151.5636231286313</v>
       </c>
     </row>
     <row r="20">
@@ -2078,25 +2078,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>315.7128114400169</v>
+        <v>315.7128114400171</v>
       </c>
       <c r="C20" t="n">
-        <v>298.251861547544</v>
+        <v>298.2518615475441</v>
       </c>
       <c r="D20" t="n">
-        <v>287.6620113972193</v>
+        <v>287.6620113972195</v>
       </c>
       <c r="E20" t="n">
-        <v>314.9093398487981</v>
+        <v>314.9093398487983</v>
       </c>
       <c r="F20" t="n">
-        <v>339.8550155182478</v>
+        <v>339.855015518248</v>
       </c>
       <c r="G20" t="n">
-        <v>343.9006954299898</v>
+        <v>343.90069542999</v>
       </c>
       <c r="H20" t="n">
-        <v>227.5867341638568</v>
+        <v>219.4760417375173</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,25 +2129,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>42.16673156471224</v>
+        <v>42.16673156471234</v>
       </c>
       <c r="T20" t="n">
-        <v>136.8969399161566</v>
+        <v>136.8969399161567</v>
       </c>
       <c r="U20" t="n">
-        <v>175.8634493090933</v>
+        <v>183.9741417354385</v>
       </c>
       <c r="V20" t="n">
-        <v>260.7312282466713</v>
+        <v>260.7312282466714</v>
       </c>
       <c r="W20" t="n">
-        <v>282.2199384939494</v>
+        <v>282.2199384939495</v>
       </c>
       <c r="X20" t="n">
-        <v>302.7100704550054</v>
+        <v>302.7100704550056</v>
       </c>
       <c r="Y20" t="n">
-        <v>319.21690843259</v>
+        <v>319.2169084325901</v>
       </c>
     </row>
     <row r="21">
@@ -2175,10 +2175,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H21" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>112.8109499584737</v>
+        <v>112.8109499584738</v>
       </c>
       <c r="C22" t="n">
-        <v>100.2257908751642</v>
+        <v>100.2257908751643</v>
       </c>
       <c r="D22" t="n">
-        <v>81.59444279474874</v>
+        <v>81.59444279474887</v>
       </c>
       <c r="E22" t="n">
-        <v>79.41293242310556</v>
+        <v>79.41293242310569</v>
       </c>
       <c r="F22" t="n">
-        <v>78.40001779946763</v>
+        <v>78.40001779946776</v>
       </c>
       <c r="G22" t="n">
-        <v>99.00477803556461</v>
+        <v>99.00477803556474</v>
       </c>
       <c r="H22" t="n">
-        <v>77.73398469085717</v>
+        <v>77.7339846908573</v>
       </c>
       <c r="I22" t="n">
-        <v>29.3313901863745</v>
+        <v>29.33139018637461</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,28 +2284,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>21.91112244658373</v>
+        <v>21.91112244658385</v>
       </c>
       <c r="S22" t="n">
-        <v>122.7479951079783</v>
+        <v>122.7479951079784</v>
       </c>
       <c r="T22" t="n">
-        <v>152.5279190527056</v>
+        <v>152.5279190527057</v>
       </c>
       <c r="U22" t="n">
-        <v>219.1908079821492</v>
+        <v>219.1908079821494</v>
       </c>
       <c r="V22" t="n">
-        <v>185.1166131003644</v>
+        <v>185.1166131003645</v>
       </c>
       <c r="W22" t="n">
-        <v>219.5019681131274</v>
+        <v>219.5019681131275</v>
       </c>
       <c r="X22" t="n">
-        <v>158.6886251655735</v>
+        <v>158.6886251655737</v>
       </c>
       <c r="Y22" t="n">
-        <v>151.5636231286312</v>
+        <v>151.5636231286313</v>
       </c>
     </row>
     <row r="23">
@@ -2315,25 +2315,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>315.7128114400169</v>
+        <v>315.7128114400171</v>
       </c>
       <c r="C23" t="n">
-        <v>298.251861547544</v>
+        <v>298.2518615475441</v>
       </c>
       <c r="D23" t="n">
-        <v>287.6620113972193</v>
+        <v>287.6620113972195</v>
       </c>
       <c r="E23" t="n">
-        <v>314.9093398487981</v>
+        <v>314.9093398487983</v>
       </c>
       <c r="F23" t="n">
-        <v>339.8550155182478</v>
+        <v>339.855015518248</v>
       </c>
       <c r="G23" t="n">
-        <v>343.9006954299898</v>
+        <v>343.90069542999</v>
       </c>
       <c r="H23" t="n">
-        <v>227.5867341638568</v>
+        <v>227.586734163857</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2366,25 +2366,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>42.16673156471224</v>
+        <v>42.16673156471235</v>
       </c>
       <c r="T23" t="n">
-        <v>136.8969399161566</v>
+        <v>136.8969399161567</v>
       </c>
       <c r="U23" t="n">
-        <v>183.9741417354384</v>
+        <v>183.9741417354385</v>
       </c>
       <c r="V23" t="n">
-        <v>260.7312282466713</v>
+        <v>260.7312282466714</v>
       </c>
       <c r="W23" t="n">
-        <v>282.2199384939494</v>
+        <v>282.2199384939495</v>
       </c>
       <c r="X23" t="n">
-        <v>302.7100704550054</v>
+        <v>302.7100704550056</v>
       </c>
       <c r="Y23" t="n">
-        <v>319.21690843259</v>
+        <v>319.2169084325901</v>
       </c>
     </row>
     <row r="24">
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>112.8109499584737</v>
+        <v>112.8109499584738</v>
       </c>
       <c r="C25" t="n">
-        <v>100.2257908751642</v>
+        <v>100.2257908751643</v>
       </c>
       <c r="D25" t="n">
-        <v>81.59444279474874</v>
+        <v>81.59444279474887</v>
       </c>
       <c r="E25" t="n">
-        <v>79.41293242310556</v>
+        <v>79.41293242310569</v>
       </c>
       <c r="F25" t="n">
-        <v>78.40001779946763</v>
+        <v>78.40001779946776</v>
       </c>
       <c r="G25" t="n">
-        <v>99.00477803556461</v>
+        <v>99.00477803556474</v>
       </c>
       <c r="H25" t="n">
-        <v>77.73398469085717</v>
+        <v>77.7339846908573</v>
       </c>
       <c r="I25" t="n">
-        <v>29.3313901863745</v>
+        <v>29.33139018637463</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,28 +2521,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>21.91112244658373</v>
+        <v>21.91112244658386</v>
       </c>
       <c r="S25" t="n">
-        <v>122.7479951079783</v>
+        <v>122.7479951079784</v>
       </c>
       <c r="T25" t="n">
-        <v>152.5279190527056</v>
+        <v>152.5279190527057</v>
       </c>
       <c r="U25" t="n">
-        <v>219.1908079821492</v>
+        <v>219.1908079821494</v>
       </c>
       <c r="V25" t="n">
-        <v>185.1166131003644</v>
+        <v>185.1166131003645</v>
       </c>
       <c r="W25" t="n">
-        <v>219.5019681131274</v>
+        <v>219.5019681131275</v>
       </c>
       <c r="X25" t="n">
-        <v>158.6886251655735</v>
+        <v>158.6886251655737</v>
       </c>
       <c r="Y25" t="n">
-        <v>151.5636231286312</v>
+        <v>151.5636231286313</v>
       </c>
     </row>
     <row r="26">
@@ -2552,28 +2552,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>342.0627192804282</v>
+        <v>342.0627192804288</v>
       </c>
       <c r="C26" t="n">
-        <v>324.6017693879551</v>
+        <v>324.6017693879558</v>
       </c>
       <c r="D26" t="n">
-        <v>314.0119192376305</v>
+        <v>314.0119192376312</v>
       </c>
       <c r="E26" t="n">
-        <v>341.2592476892094</v>
+        <v>341.25924768921</v>
       </c>
       <c r="F26" t="n">
-        <v>366.204923358659</v>
+        <v>366.2049233586596</v>
       </c>
       <c r="G26" t="n">
-        <v>370.250603270401</v>
+        <v>370.2506032704017</v>
       </c>
       <c r="H26" t="n">
-        <v>253.936642004268</v>
+        <v>253.9366420042687</v>
       </c>
       <c r="I26" t="n">
-        <v>0.9058073898735657</v>
+        <v>0.9058073898741554</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,25 +2603,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>68.51663940512343</v>
+        <v>68.51663940512404</v>
       </c>
       <c r="T26" t="n">
-        <v>163.2468477565677</v>
+        <v>163.2468477565683</v>
       </c>
       <c r="U26" t="n">
-        <v>210.3240495758496</v>
+        <v>210.3240495758502</v>
       </c>
       <c r="V26" t="n">
-        <v>287.0811360870825</v>
+        <v>287.0811360870831</v>
       </c>
       <c r="W26" t="n">
-        <v>308.5698463343606</v>
+        <v>308.5698463343612</v>
       </c>
       <c r="X26" t="n">
-        <v>329.0599782954166</v>
+        <v>329.0599782954172</v>
       </c>
       <c r="Y26" t="n">
-        <v>345.5668162730012</v>
+        <v>345.5668162730018</v>
       </c>
     </row>
     <row r="27">
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>139.1608577988849</v>
+        <v>139.1608577988855</v>
       </c>
       <c r="C28" t="n">
-        <v>126.5756987155754</v>
+        <v>126.575698715576</v>
       </c>
       <c r="D28" t="n">
-        <v>107.9443506351599</v>
+        <v>107.9443506351605</v>
       </c>
       <c r="E28" t="n">
-        <v>105.7628402635168</v>
+        <v>105.7628402635173</v>
       </c>
       <c r="F28" t="n">
-        <v>104.7499256398788</v>
+        <v>104.7499256398794</v>
       </c>
       <c r="G28" t="n">
-        <v>125.3546858759758</v>
+        <v>79.14583582056461</v>
       </c>
       <c r="H28" t="n">
-        <v>104.0838925312684</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>54.48645838850946</v>
+        <v>55.68129802678629</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,28 +2758,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>48.26103028699492</v>
+        <v>48.26103028699552</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>149.0979029483901</v>
       </c>
       <c r="T28" t="n">
-        <v>178.8778268931168</v>
+        <v>178.8778268931174</v>
       </c>
       <c r="U28" t="n">
-        <v>245.5407158225605</v>
+        <v>245.540715822561</v>
       </c>
       <c r="V28" t="n">
-        <v>211.4665209407756</v>
+        <v>211.4665209407762</v>
       </c>
       <c r="W28" t="n">
-        <v>245.8518759535386</v>
+        <v>245.8518759535392</v>
       </c>
       <c r="X28" t="n">
-        <v>185.0385330059847</v>
+        <v>185.0385330059853</v>
       </c>
       <c r="Y28" t="n">
-        <v>177.9135309690424</v>
+        <v>177.913530969043</v>
       </c>
     </row>
     <row r="29">
@@ -2789,28 +2789,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>342.0627192804282</v>
+        <v>342.0627192804288</v>
       </c>
       <c r="C29" t="n">
-        <v>324.6017693879551</v>
+        <v>324.6017693879558</v>
       </c>
       <c r="D29" t="n">
-        <v>314.0119192376305</v>
+        <v>314.0119192376312</v>
       </c>
       <c r="E29" t="n">
-        <v>341.2592476892094</v>
+        <v>341.25924768921</v>
       </c>
       <c r="F29" t="n">
-        <v>366.204923358659</v>
+        <v>366.2049233586596</v>
       </c>
       <c r="G29" t="n">
-        <v>370.250603270401</v>
+        <v>370.2506032704017</v>
       </c>
       <c r="H29" t="n">
-        <v>253.936642004268</v>
+        <v>253.9366420042687</v>
       </c>
       <c r="I29" t="n">
-        <v>0.9058073898735657</v>
+        <v>0.9058073898741554</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,25 +2840,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>68.51663940512343</v>
+        <v>68.51663940512402</v>
       </c>
       <c r="T29" t="n">
-        <v>163.2468477565677</v>
+        <v>163.2468477565683</v>
       </c>
       <c r="U29" t="n">
-        <v>210.3240495758496</v>
+        <v>210.3240495758502</v>
       </c>
       <c r="V29" t="n">
-        <v>287.0811360870825</v>
+        <v>287.0811360870831</v>
       </c>
       <c r="W29" t="n">
-        <v>308.5698463343606</v>
+        <v>308.5698463343612</v>
       </c>
       <c r="X29" t="n">
-        <v>329.0599782954166</v>
+        <v>329.0599782954172</v>
       </c>
       <c r="Y29" t="n">
-        <v>345.5668162730012</v>
+        <v>345.5668162730018</v>
       </c>
     </row>
     <row r="30">
@@ -2947,25 +2947,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>139.1608577988849</v>
+        <v>139.1608577988855</v>
       </c>
       <c r="C31" t="n">
-        <v>126.5756987155754</v>
+        <v>126.575698715576</v>
       </c>
       <c r="D31" t="n">
-        <v>107.9443506351599</v>
+        <v>107.9443506351605</v>
       </c>
       <c r="E31" t="n">
-        <v>105.7628402635168</v>
+        <v>105.7628402635173</v>
       </c>
       <c r="F31" t="n">
-        <v>104.7499256398788</v>
+        <v>10.13848107998552</v>
       </c>
       <c r="G31" t="n">
-        <v>125.3546858759758</v>
+        <v>125.3546858759764</v>
       </c>
       <c r="H31" t="n">
-        <v>9.472447971387172</v>
+        <v>104.083892531269</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>48.26103028699492</v>
+        <v>48.26103028699553</v>
       </c>
       <c r="S31" t="n">
-        <v>149.0979029483895</v>
+        <v>149.0979029483901</v>
       </c>
       <c r="T31" t="n">
-        <v>178.8778268931168</v>
+        <v>178.8778268931174</v>
       </c>
       <c r="U31" t="n">
-        <v>245.5407158225605</v>
+        <v>245.540715822561</v>
       </c>
       <c r="V31" t="n">
-        <v>211.4665209407756</v>
+        <v>211.4665209407762</v>
       </c>
       <c r="W31" t="n">
-        <v>245.8518759535386</v>
+        <v>245.8518759535392</v>
       </c>
       <c r="X31" t="n">
-        <v>185.0385330059847</v>
+        <v>185.0385330059853</v>
       </c>
       <c r="Y31" t="n">
-        <v>177.9135309690424</v>
+        <v>177.913530969043</v>
       </c>
     </row>
     <row r="32">
@@ -3026,25 +3026,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>340.2213799286739</v>
+        <v>340.2213799286746</v>
       </c>
       <c r="C32" t="n">
-        <v>322.7604300362009</v>
+        <v>322.7604300362016</v>
       </c>
       <c r="D32" t="n">
-        <v>312.1705798858763</v>
+        <v>312.170579885877</v>
       </c>
       <c r="E32" t="n">
-        <v>339.4179083374551</v>
+        <v>339.4179083374558</v>
       </c>
       <c r="F32" t="n">
-        <v>364.3635840069048</v>
+        <v>364.3635840069055</v>
       </c>
       <c r="G32" t="n">
-        <v>368.4092639186468</v>
+        <v>368.4092639186475</v>
       </c>
       <c r="H32" t="n">
-        <v>252.0953026525138</v>
+        <v>252.0953026525145</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>66.67530005336916</v>
+        <v>66.67530005336987</v>
       </c>
       <c r="T32" t="n">
-        <v>161.4055084048135</v>
+        <v>161.4055084048142</v>
       </c>
       <c r="U32" t="n">
-        <v>208.4827102240953</v>
+        <v>208.482710224096</v>
       </c>
       <c r="V32" t="n">
-        <v>285.2397967353282</v>
+        <v>285.2397967353289</v>
       </c>
       <c r="W32" t="n">
-        <v>306.7285069826063</v>
+        <v>306.728506982607</v>
       </c>
       <c r="X32" t="n">
-        <v>327.2186389436624</v>
+        <v>327.2186389436631</v>
       </c>
       <c r="Y32" t="n">
-        <v>343.7254769212469</v>
+        <v>343.7254769212476</v>
       </c>
     </row>
     <row r="33">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>137.3195184471306</v>
+        <v>137.3195184471313</v>
       </c>
       <c r="C34" t="n">
-        <v>124.7343593638211</v>
+        <v>124.7343593638219</v>
       </c>
       <c r="D34" t="n">
-        <v>106.1030112834057</v>
+        <v>106.1030112834064</v>
       </c>
       <c r="E34" t="n">
-        <v>103.9215009117625</v>
+        <v>103.9215009117632</v>
       </c>
       <c r="F34" t="n">
-        <v>102.9085862881246</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>17.11960715485917</v>
+        <v>120.0281934429687</v>
       </c>
       <c r="H34" t="n">
-        <v>102.2425531795141</v>
+        <v>102.2425531795148</v>
       </c>
       <c r="I34" t="n">
-        <v>53.83995867503142</v>
+        <v>53.83995867503213</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>46.41969093524066</v>
+        <v>46.41969093524136</v>
       </c>
       <c r="S34" t="n">
-        <v>147.2565635966352</v>
+        <v>147.2565635966359</v>
       </c>
       <c r="T34" t="n">
-        <v>177.0364875413625</v>
+        <v>177.0364875413632</v>
       </c>
       <c r="U34" t="n">
-        <v>243.6993764708062</v>
+        <v>243.6993764708069</v>
       </c>
       <c r="V34" t="n">
-        <v>209.6251815890213</v>
+        <v>209.625181589022</v>
       </c>
       <c r="W34" t="n">
-        <v>244.0105366017843</v>
+        <v>244.010536601785</v>
       </c>
       <c r="X34" t="n">
-        <v>183.1971936542305</v>
+        <v>183.1971936542312</v>
       </c>
       <c r="Y34" t="n">
-        <v>176.0721916172881</v>
+        <v>176.0721916172888</v>
       </c>
     </row>
     <row r="35">
@@ -3263,25 +3263,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>315.1334762667066</v>
+        <v>315.133476266707</v>
       </c>
       <c r="C35" t="n">
-        <v>297.6725263742336</v>
+        <v>297.672526374234</v>
       </c>
       <c r="D35" t="n">
-        <v>287.0826762239089</v>
+        <v>287.0826762239094</v>
       </c>
       <c r="E35" t="n">
-        <v>314.3300046754878</v>
+        <v>314.3300046754882</v>
       </c>
       <c r="F35" t="n">
-        <v>339.2756803449374</v>
+        <v>339.2756803449379</v>
       </c>
       <c r="G35" t="n">
-        <v>343.3213602566794</v>
+        <v>343.3213602566799</v>
       </c>
       <c r="H35" t="n">
-        <v>227.0073989905465</v>
+        <v>227.0073989905469</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,25 +3314,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>41.58739639140187</v>
+        <v>41.58739639140231</v>
       </c>
       <c r="T35" t="n">
-        <v>136.3176047428462</v>
+        <v>136.3176047428466</v>
       </c>
       <c r="U35" t="n">
-        <v>183.394806562128</v>
+        <v>183.3948065621284</v>
       </c>
       <c r="V35" t="n">
-        <v>260.151893073361</v>
+        <v>260.1518930733614</v>
       </c>
       <c r="W35" t="n">
-        <v>281.640603320639</v>
+        <v>281.6406033206395</v>
       </c>
       <c r="X35" t="n">
-        <v>302.130735281695</v>
+        <v>302.1307352816955</v>
       </c>
       <c r="Y35" t="n">
-        <v>318.6375732592796</v>
+        <v>318.63757325928</v>
       </c>
     </row>
     <row r="36">
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>112.2316147851633</v>
+        <v>112.2316147851638</v>
       </c>
       <c r="C37" t="n">
-        <v>99.64645570185385</v>
+        <v>99.64645570185429</v>
       </c>
       <c r="D37" t="n">
-        <v>81.01510762143837</v>
+        <v>81.01510762143882</v>
       </c>
       <c r="E37" t="n">
-        <v>78.83359724979519</v>
+        <v>78.83359724979563</v>
       </c>
       <c r="F37" t="n">
-        <v>77.82068262615726</v>
+        <v>77.8206826261577</v>
       </c>
       <c r="G37" t="n">
-        <v>98.42544286225424</v>
+        <v>98.42544286225468</v>
       </c>
       <c r="H37" t="n">
-        <v>77.1546495175468</v>
+        <v>77.15464951754724</v>
       </c>
       <c r="I37" t="n">
-        <v>28.75205501306413</v>
+        <v>28.75205501306458</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3469,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>21.33178727327336</v>
+        <v>21.3317872732738</v>
       </c>
       <c r="S37" t="n">
-        <v>122.1686599346679</v>
+        <v>122.1686599346684</v>
       </c>
       <c r="T37" t="n">
-        <v>151.9485838793952</v>
+        <v>151.9485838793956</v>
       </c>
       <c r="U37" t="n">
-        <v>218.6114728088389</v>
+        <v>218.6114728088393</v>
       </c>
       <c r="V37" t="n">
-        <v>184.537277927054</v>
+        <v>184.5372779270544</v>
       </c>
       <c r="W37" t="n">
-        <v>218.922632939817</v>
+        <v>218.9226329398174</v>
       </c>
       <c r="X37" t="n">
-        <v>158.1092899922632</v>
+        <v>158.1092899922636</v>
       </c>
       <c r="Y37" t="n">
-        <v>150.9842879553208</v>
+        <v>150.9842879553212</v>
       </c>
     </row>
     <row r="38">
@@ -3500,25 +3500,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>315.1334762667067</v>
+        <v>315.1334762667071</v>
       </c>
       <c r="C38" t="n">
-        <v>297.6725263742336</v>
+        <v>297.6725263742341</v>
       </c>
       <c r="D38" t="n">
-        <v>287.0826762239091</v>
+        <v>287.0826762239095</v>
       </c>
       <c r="E38" t="n">
-        <v>314.3300046754879</v>
+        <v>314.3300046754883</v>
       </c>
       <c r="F38" t="n">
-        <v>339.2756803449375</v>
+        <v>339.2756803449379</v>
       </c>
       <c r="G38" t="n">
-        <v>343.3213602566796</v>
+        <v>343.32136025668</v>
       </c>
       <c r="H38" t="n">
-        <v>227.0073989905465</v>
+        <v>227.007398990547</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,25 +3551,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>41.58739639140192</v>
+        <v>41.58739639140232</v>
       </c>
       <c r="T38" t="n">
-        <v>136.3176047428462</v>
+        <v>136.3176047428467</v>
       </c>
       <c r="U38" t="n">
-        <v>183.3948065621281</v>
+        <v>183.3948065621285</v>
       </c>
       <c r="V38" t="n">
-        <v>260.151893073361</v>
+        <v>260.1518930733614</v>
       </c>
       <c r="W38" t="n">
-        <v>281.6406033206391</v>
+        <v>281.6406033206395</v>
       </c>
       <c r="X38" t="n">
-        <v>302.1307352816951</v>
+        <v>302.1307352816955</v>
       </c>
       <c r="Y38" t="n">
-        <v>318.6375732592796</v>
+        <v>318.6375732592801</v>
       </c>
     </row>
     <row r="39">
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>112.2316147851634</v>
+        <v>112.2316147851638</v>
       </c>
       <c r="C40" t="n">
-        <v>99.64645570185391</v>
+        <v>99.64645570185432</v>
       </c>
       <c r="D40" t="n">
-        <v>81.01510762143843</v>
+        <v>81.01510762143884</v>
       </c>
       <c r="E40" t="n">
-        <v>78.83359724979525</v>
+        <v>78.83359724979566</v>
       </c>
       <c r="F40" t="n">
-        <v>77.82068262615732</v>
+        <v>77.82068262615773</v>
       </c>
       <c r="G40" t="n">
-        <v>98.4254428622543</v>
+        <v>98.42544286225471</v>
       </c>
       <c r="H40" t="n">
-        <v>77.15464951754686</v>
+        <v>77.15464951754727</v>
       </c>
       <c r="I40" t="n">
-        <v>28.75205501306419</v>
+        <v>28.75205501306461</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3706,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>21.33178727327342</v>
+        <v>21.33178727327383</v>
       </c>
       <c r="S40" t="n">
-        <v>122.168659934668</v>
+        <v>122.1686599346684</v>
       </c>
       <c r="T40" t="n">
-        <v>151.9485838793953</v>
+        <v>151.9485838793957</v>
       </c>
       <c r="U40" t="n">
-        <v>218.6114728088389</v>
+        <v>218.6114728088394</v>
       </c>
       <c r="V40" t="n">
-        <v>184.5372779270541</v>
+        <v>184.5372779270545</v>
       </c>
       <c r="W40" t="n">
-        <v>218.9226329398171</v>
+        <v>218.9226329398175</v>
       </c>
       <c r="X40" t="n">
-        <v>158.1092899922632</v>
+        <v>158.1092899922637</v>
       </c>
       <c r="Y40" t="n">
-        <v>150.9842879553209</v>
+        <v>150.9842879553213</v>
       </c>
     </row>
     <row r="41">
@@ -3740,13 +3740,13 @@
         <v>335.758705044888</v>
       </c>
       <c r="C41" t="n">
-        <v>158.2620444867894</v>
+        <v>318.297755152415</v>
       </c>
       <c r="D41" t="n">
-        <v>307.7079050020904</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>334.9552334536692</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>359.9009091231189</v>
@@ -3755,7 +3755,7 @@
         <v>363.9465890348609</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>247.6326277687279</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>62.21262516958328</v>
+        <v>62.21262516958326</v>
       </c>
       <c r="T41" t="n">
         <v>156.9428335210276</v>
@@ -3797,10 +3797,10 @@
         <v>204.0200353403094</v>
       </c>
       <c r="V41" t="n">
-        <v>280.7771218515423</v>
+        <v>213.5060897741285</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>302.2658320988205</v>
       </c>
       <c r="X41" t="n">
         <v>322.7559640598765</v>
@@ -3898,25 +3898,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C43" t="n">
-        <v>120.2716844800353</v>
+        <v>120.2716844800352</v>
       </c>
       <c r="D43" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E43" t="n">
-        <v>99.45882602797661</v>
+        <v>99.45882602797658</v>
       </c>
       <c r="F43" t="n">
-        <v>98.44591140433869</v>
+        <v>98.44591140433866</v>
       </c>
       <c r="G43" t="n">
-        <v>119.0506716404357</v>
+        <v>119.0506716404356</v>
       </c>
       <c r="H43" t="n">
-        <v>97.77987829572822</v>
+        <v>97.7798782957282</v>
       </c>
       <c r="I43" t="n">
-        <v>49.37728379124555</v>
+        <v>49.37728379124554</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.95701605145479</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S43" t="n">
         <v>142.7938887128493</v>
@@ -3980,10 +3980,10 @@
         <v>318.297755152415</v>
       </c>
       <c r="D44" t="n">
-        <v>307.7079050020904</v>
+        <v>180.3615956913143</v>
       </c>
       <c r="E44" t="n">
-        <v>334.9552334536692</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>359.9009091231189</v>
@@ -4025,13 +4025,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>62.21262516958329</v>
+        <v>62.21262516958326</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>156.9428335210276</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>204.0200353403094</v>
       </c>
       <c r="V44" t="n">
         <v>280.7771218515423</v>
@@ -4043,7 +4043,7 @@
         <v>322.7559640598765</v>
       </c>
       <c r="Y44" t="n">
-        <v>237.9241281343512</v>
+        <v>339.262802037461</v>
       </c>
     </row>
     <row r="45">
@@ -4141,19 +4141,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E46" t="n">
-        <v>99.45882602797661</v>
+        <v>99.4588260279766</v>
       </c>
       <c r="F46" t="n">
-        <v>98.44591140433869</v>
+        <v>98.44591140433867</v>
       </c>
       <c r="G46" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H46" t="n">
-        <v>97.77987829572822</v>
+        <v>97.77987829572785</v>
       </c>
       <c r="I46" t="n">
-        <v>49.37728379124555</v>
+        <v>49.37728379124554</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.95701605145479</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S46" t="n">
         <v>142.7938887128493</v>
@@ -4189,7 +4189,7 @@
         <v>172.5738126575766</v>
       </c>
       <c r="U46" t="n">
-        <v>239.2367015870198</v>
+        <v>239.2367015870203</v>
       </c>
       <c r="V46" t="n">
         <v>205.1625067052354</v>
@@ -4805,19 +4805,19 @@
         <v>0.5500836593369149</v>
       </c>
       <c r="K8" t="n">
-        <v>0.5500836593369149</v>
+        <v>7.357368943631237</v>
       </c>
       <c r="L8" t="n">
-        <v>7.082327113962777</v>
+        <v>7.357368943631237</v>
       </c>
       <c r="M8" t="n">
-        <v>13.8896123982571</v>
+        <v>14.16465422792556</v>
       </c>
       <c r="N8" t="n">
-        <v>13.8896123982571</v>
+        <v>20.97193951221988</v>
       </c>
       <c r="O8" t="n">
-        <v>20.69689768255142</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="P8" t="n">
         <v>27.50418296684575</v>
@@ -4829,13 +4829,13 @@
         <v>27.50418296684575</v>
       </c>
       <c r="S8" t="n">
-        <v>27.50418296684575</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="T8" t="n">
-        <v>27.50418296684575</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="U8" t="n">
-        <v>27.50418296684575</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="V8" t="n">
         <v>21.38658590694733</v>
@@ -4844,7 +4844,7 @@
         <v>21.38658590694733</v>
       </c>
       <c r="X8" t="n">
-        <v>21.38658590694733</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="Y8" t="n">
         <v>14.44108515774386</v>
@@ -4857,25 +4857,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>20.55868221764227</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="C9" t="n">
-        <v>20.55868221764227</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="D9" t="n">
-        <v>20.55868221764227</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="E9" t="n">
-        <v>14.44108515774386</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="F9" t="n">
-        <v>7.495584408540386</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="G9" t="n">
-        <v>7.495584408540386</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="H9" t="n">
-        <v>7.495584408540386</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="I9" t="n">
         <v>0.5500836593369149</v>
@@ -4884,19 +4884,19 @@
         <v>2.321350984585339</v>
       </c>
       <c r="K9" t="n">
+        <v>2.321350984585339</v>
+      </c>
+      <c r="L9" t="n">
+        <v>2.321350984585339</v>
+      </c>
+      <c r="M9" t="n">
         <v>9.128636268879662</v>
       </c>
-      <c r="L9" t="n">
-        <v>9.128636268879662</v>
-      </c>
-      <c r="M9" t="n">
-        <v>13.8896123982571</v>
-      </c>
       <c r="N9" t="n">
-        <v>20.69689768255142</v>
+        <v>15.93592155317398</v>
       </c>
       <c r="O9" t="n">
-        <v>27.50418296684575</v>
+        <v>22.74320683746831</v>
       </c>
       <c r="P9" t="n">
         <v>27.50418296684575</v>
@@ -4905,28 +4905,28 @@
         <v>27.50418296684575</v>
       </c>
       <c r="R9" t="n">
-        <v>27.50418296684575</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="S9" t="n">
-        <v>27.50418296684575</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="T9" t="n">
-        <v>27.50418296684575</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="U9" t="n">
-        <v>20.55868221764227</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="V9" t="n">
-        <v>20.55868221764227</v>
+        <v>7.495584408540386</v>
       </c>
       <c r="W9" t="n">
-        <v>20.55868221764227</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="X9" t="n">
-        <v>20.55868221764227</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="Y9" t="n">
-        <v>20.55868221764227</v>
+        <v>0.5500836593369149</v>
       </c>
     </row>
     <row r="10">
@@ -4936,19 +4936,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>13.6131814684388</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="C10" t="n">
-        <v>13.6131814684388</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="D10" t="n">
-        <v>13.6131814684388</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="E10" t="n">
-        <v>7.495584408540386</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="F10" t="n">
-        <v>7.495584408540386</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="G10" t="n">
         <v>0.5500836593369149</v>
@@ -4984,28 +4984,28 @@
         <v>27.50418296684575</v>
       </c>
       <c r="R10" t="n">
-        <v>27.50418296684575</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="S10" t="n">
-        <v>27.50418296684575</v>
+        <v>13.6131814684388</v>
       </c>
       <c r="T10" t="n">
-        <v>27.50418296684575</v>
+        <v>13.6131814684388</v>
       </c>
       <c r="U10" t="n">
-        <v>27.50418296684575</v>
+        <v>13.6131814684388</v>
       </c>
       <c r="V10" t="n">
-        <v>20.55868221764227</v>
+        <v>13.6131814684388</v>
       </c>
       <c r="W10" t="n">
-        <v>20.55868221764227</v>
+        <v>7.495584408540386</v>
       </c>
       <c r="X10" t="n">
-        <v>20.55868221764227</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="Y10" t="n">
-        <v>13.6131814684388</v>
+        <v>0.5500836593369149</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1768.338774781834</v>
+        <v>1627.383644777219</v>
       </c>
       <c r="C11" t="n">
-        <v>1446.825890789496</v>
+        <v>1305.870760784881</v>
       </c>
       <c r="D11" t="n">
-        <v>1136.009825130819</v>
+        <v>995.0546951262033</v>
       </c>
       <c r="E11" t="n">
-        <v>797.6712054806477</v>
+        <v>680.1823557168772</v>
       </c>
       <c r="F11" t="n">
-        <v>434.1349336391136</v>
+        <v>316.6460838753429</v>
       </c>
       <c r="G11" t="n">
-        <v>66.51211643218339</v>
+        <v>316.6460838753429</v>
       </c>
       <c r="H11" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K11" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810559</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O11" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R11" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S11" t="n">
-        <v>3325.60582160917</v>
+        <v>3262.764786084339</v>
       </c>
       <c r="T11" t="n">
-        <v>3167.077706941465</v>
+        <v>3104.236671416634</v>
       </c>
       <c r="U11" t="n">
-        <v>2960.996863163375</v>
+        <v>2898.155827638544</v>
       </c>
       <c r="V11" t="n">
-        <v>2677.383608767877</v>
+        <v>2614.542573243047</v>
       </c>
       <c r="W11" t="n">
-        <v>2372.064586445837</v>
+        <v>2309.223550921006</v>
       </c>
       <c r="X11" t="n">
-        <v>2372.064586445837</v>
+        <v>2309.223550921006</v>
       </c>
       <c r="Y11" t="n">
-        <v>2029.374887418098</v>
+        <v>1966.533851893267</v>
       </c>
     </row>
     <row r="12">
@@ -5112,19 +5112,19 @@
         <v>176.021302392778</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I12" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J12" t="n">
-        <v>160.1893859228011</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031482</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158134</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M12" t="n">
         <v>1212.428070438129</v>
@@ -5173,34 +5173,34 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>759.4662498052946</v>
+        <v>759.4662498052951</v>
       </c>
       <c r="C13" t="n">
-        <v>637.979699825461</v>
+        <v>637.9796998254615</v>
       </c>
       <c r="D13" t="n">
-        <v>535.3126933611985</v>
+        <v>535.3126933611991</v>
       </c>
       <c r="E13" t="n">
-        <v>434.8492327268787</v>
+        <v>434.8492327268793</v>
       </c>
       <c r="F13" t="n">
-        <v>335.4089181770417</v>
+        <v>335.4089181770422</v>
       </c>
       <c r="G13" t="n">
-        <v>215.1557144998339</v>
+        <v>215.1557144998342</v>
       </c>
       <c r="H13" t="n">
         <v>116.3881606657648</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J13" t="n">
-        <v>158.1401341315257</v>
+        <v>158.1401341315256</v>
       </c>
       <c r="K13" t="n">
-        <v>408.6327023328086</v>
+        <v>408.6327023328085</v>
       </c>
       <c r="L13" t="n">
         <v>771.6978860337113</v>
@@ -5224,7 +5224,7 @@
         <v>2256.956805813347</v>
       </c>
       <c r="S13" t="n">
-        <v>2112.720554588246</v>
+        <v>2112.720554588247</v>
       </c>
       <c r="T13" t="n">
         <v>1938.403572105846</v>
@@ -5233,7 +5233,7 @@
         <v>1696.750338179563</v>
       </c>
       <c r="V13" t="n">
-        <v>1489.515482921749</v>
+        <v>1489.51548292175</v>
       </c>
       <c r="W13" t="n">
         <v>1247.547945832862</v>
@@ -5242,7 +5242,7 @@
         <v>1067.008027882918</v>
       </c>
       <c r="Y13" t="n">
-        <v>893.665081687461</v>
+        <v>893.6650816874615</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1301.367519464211</v>
+        <v>1301.367519464212</v>
       </c>
       <c r="C14" t="n">
-        <v>979.8546354718726</v>
+        <v>1022.607520732444</v>
       </c>
       <c r="D14" t="n">
-        <v>669.0385698131954</v>
+        <v>1022.607520732444</v>
       </c>
       <c r="E14" t="n">
-        <v>669.0385698131954</v>
+        <v>684.268901082273</v>
       </c>
       <c r="F14" t="n">
-        <v>305.5022979716612</v>
+        <v>684.268901082273</v>
       </c>
       <c r="G14" t="n">
-        <v>305.5022979716612</v>
+        <v>316.6460838753429</v>
       </c>
       <c r="H14" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I14" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L14" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M14" t="n">
-        <v>1573.776739001387</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N14" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O14" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P14" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q14" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R14" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S14" t="n">
-        <v>3262.764786084338</v>
+        <v>3262.764786084339</v>
       </c>
       <c r="T14" t="n">
         <v>3104.236671416634</v>
       </c>
       <c r="U14" t="n">
-        <v>2898.155827638543</v>
+        <v>2898.155827638544</v>
       </c>
       <c r="V14" t="n">
-        <v>2614.542573243046</v>
+        <v>2614.542573243047</v>
       </c>
       <c r="W14" t="n">
-        <v>2309.223550921005</v>
+        <v>2309.223550921006</v>
       </c>
       <c r="X14" t="n">
-        <v>1983.207425607998</v>
+        <v>1983.207425607999</v>
       </c>
       <c r="Y14" t="n">
-        <v>1640.51772658026</v>
+        <v>1640.517726580261</v>
       </c>
     </row>
     <row r="15">
@@ -5331,37 +5331,37 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D15" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G15" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064544</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I15" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J15" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L15" t="n">
-        <v>765.1517452158134</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M15" t="n">
         <v>1212.428070438129</v>
@@ -5388,7 +5388,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U15" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V15" t="n">
         <v>1779.608347199865</v>
@@ -5397,10 +5397,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X15" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y15" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="16">
@@ -5410,34 +5410,34 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>759.4662498052941</v>
+        <v>759.4662498052942</v>
       </c>
       <c r="C16" t="n">
-        <v>637.9796998254604</v>
+        <v>637.9796998254606</v>
       </c>
       <c r="D16" t="n">
-        <v>535.3126933611981</v>
+        <v>535.3126933611982</v>
       </c>
       <c r="E16" t="n">
-        <v>434.8492327268782</v>
+        <v>434.8492327268784</v>
       </c>
       <c r="F16" t="n">
-        <v>335.4089181770412</v>
+        <v>335.4089181770413</v>
       </c>
       <c r="G16" t="n">
-        <v>215.1557144998335</v>
+        <v>215.1557144998337</v>
       </c>
       <c r="H16" t="n">
-        <v>116.3881606657646</v>
+        <v>116.3881606657648</v>
       </c>
       <c r="I16" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J16" t="n">
-        <v>158.1401341315255</v>
+        <v>158.1401341315256</v>
       </c>
       <c r="K16" t="n">
-        <v>408.6327023328084</v>
+        <v>408.6327023328086</v>
       </c>
       <c r="L16" t="n">
         <v>771.6978860337113</v>
@@ -5452,7 +5452,7 @@
         <v>1896.109063016758</v>
       </c>
       <c r="P16" t="n">
-        <v>2175.221948702825</v>
+        <v>2175.221948702824</v>
       </c>
       <c r="Q16" t="n">
         <v>2299.337630107746</v>
@@ -5461,19 +5461,19 @@
         <v>2256.956805813347</v>
       </c>
       <c r="S16" t="n">
-        <v>2112.720554588246</v>
+        <v>2112.720554588247</v>
       </c>
       <c r="T16" t="n">
         <v>1938.403572105846</v>
       </c>
       <c r="U16" t="n">
-        <v>1696.750338179563</v>
+        <v>1696.750338179562</v>
       </c>
       <c r="V16" t="n">
         <v>1489.515482921749</v>
       </c>
       <c r="W16" t="n">
-        <v>1247.547945832862</v>
+        <v>1247.547945832861</v>
       </c>
       <c r="X16" t="n">
         <v>1067.008027882917</v>
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1905.664831439724</v>
+        <v>1905.664831439725</v>
       </c>
       <c r="C17" t="n">
-        <v>1604.400324826043</v>
+        <v>1604.400324826044</v>
       </c>
       <c r="D17" t="n">
-        <v>1313.832636546023</v>
+        <v>1313.832636546024</v>
       </c>
       <c r="E17" t="n">
-        <v>995.7423942745099</v>
+        <v>995.7423942745106</v>
       </c>
       <c r="F17" t="n">
-        <v>652.4544998116334</v>
+        <v>652.4544998116339</v>
       </c>
       <c r="G17" t="n">
-        <v>305.0800599833609</v>
+        <v>305.0800599833613</v>
       </c>
       <c r="H17" t="n">
-        <v>75.19446991885903</v>
+        <v>75.19446991885917</v>
       </c>
       <c r="I17" t="n">
-        <v>75.19446991885903</v>
+        <v>75.19446991885917</v>
       </c>
       <c r="J17" t="n">
-        <v>264.0736008778844</v>
+        <v>431.4792498982376</v>
       </c>
       <c r="K17" t="n">
-        <v>639.6883186508164</v>
+        <v>1023.328295414844</v>
       </c>
       <c r="L17" t="n">
-        <v>1090.722531899225</v>
+        <v>1474.362508663252</v>
       </c>
       <c r="M17" t="n">
-        <v>1624.254436571149</v>
+        <v>2007.894413335177</v>
       </c>
       <c r="N17" t="n">
-        <v>2171.033253629932</v>
+        <v>2554.673230393959</v>
       </c>
       <c r="O17" t="n">
-        <v>2674.005724509268</v>
+        <v>3057.645701273296</v>
       </c>
       <c r="P17" t="n">
-        <v>3387.360811956214</v>
+        <v>3452.420067630474</v>
       </c>
       <c r="Q17" t="n">
-        <v>3635.647173711896</v>
+        <v>3700.706429386156</v>
       </c>
       <c r="R17" t="n">
-        <v>3759.723495942952</v>
+        <v>3759.723495942958</v>
       </c>
       <c r="S17" t="n">
-        <v>3717.130837796778</v>
+        <v>3717.130837796784</v>
       </c>
       <c r="T17" t="n">
-        <v>3578.851100507731</v>
+        <v>3578.851100507737</v>
       </c>
       <c r="U17" t="n">
-        <v>3393.018634108298</v>
+        <v>3393.018634108304</v>
       </c>
       <c r="V17" t="n">
-        <v>3137.846375703928</v>
+        <v>3129.653757091465</v>
       </c>
       <c r="W17" t="n">
-        <v>2852.775730760544</v>
+        <v>2844.583112148081</v>
       </c>
       <c r="X17" t="n">
-        <v>2547.007982826195</v>
+        <v>2538.815364213732</v>
       </c>
       <c r="Y17" t="n">
-        <v>2224.566661177114</v>
+        <v>2216.374042564652</v>
       </c>
     </row>
     <row r="18">
@@ -5568,46 +5568,46 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>950.2262079677843</v>
+        <v>950.2262079677845</v>
       </c>
       <c r="C18" t="n">
-        <v>775.7731786866573</v>
+        <v>775.7731786866575</v>
       </c>
       <c r="D18" t="n">
-        <v>626.838769025406</v>
+        <v>626.8387690254062</v>
       </c>
       <c r="E18" t="n">
-        <v>467.6013140199506</v>
+        <v>467.6013140199507</v>
       </c>
       <c r="F18" t="n">
-        <v>321.0667560468355</v>
+        <v>321.0667560468356</v>
       </c>
       <c r="G18" t="n">
-        <v>184.7036558794536</v>
+        <v>184.7036558794537</v>
       </c>
       <c r="H18" t="n">
-        <v>94.2017615173211</v>
+        <v>94.20176151732124</v>
       </c>
       <c r="I18" t="n">
-        <v>75.19446991885903</v>
+        <v>75.19446991885917</v>
       </c>
       <c r="J18" t="n">
-        <v>168.8717394094773</v>
+        <v>168.8717394094764</v>
       </c>
       <c r="K18" t="n">
-        <v>407.1359383898244</v>
+        <v>407.1359383898235</v>
       </c>
       <c r="L18" t="n">
-        <v>773.8340987024897</v>
+        <v>773.8340987024887</v>
       </c>
       <c r="M18" t="n">
         <v>1221.110423924805</v>
       </c>
       <c r="N18" t="n">
-        <v>1694.63346747926</v>
+        <v>1694.633467479259</v>
       </c>
       <c r="O18" t="n">
-        <v>2105.594746897315</v>
+        <v>2105.594746897314</v>
       </c>
       <c r="P18" t="n">
         <v>2416.094338373417</v>
@@ -5616,7 +5616,7 @@
         <v>2573.735896020017</v>
       </c>
       <c r="R18" t="n">
-        <v>2573.591542612532</v>
+        <v>2573.591542612533</v>
       </c>
       <c r="S18" t="n">
         <v>2444.153656106012</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>626.4099616413666</v>
+        <v>626.4099616413675</v>
       </c>
       <c r="C19" t="n">
-        <v>525.1717890401907</v>
+        <v>525.1717890401915</v>
       </c>
       <c r="D19" t="n">
-        <v>442.7531599545858</v>
+        <v>442.7531599545866</v>
       </c>
       <c r="E19" t="n">
-        <v>362.5380766989236</v>
+        <v>362.5380766989243</v>
       </c>
       <c r="F19" t="n">
-        <v>283.3461395277442</v>
+        <v>283.3461395277447</v>
       </c>
       <c r="G19" t="n">
-        <v>183.341313229194</v>
+        <v>183.3413132291944</v>
       </c>
       <c r="H19" t="n">
-        <v>104.8221367737828</v>
+        <v>104.822136773783</v>
       </c>
       <c r="I19" t="n">
-        <v>75.19446991885903</v>
+        <v>75.19446991885917</v>
       </c>
       <c r="J19" t="n">
-        <v>120.3171023657946</v>
+        <v>120.3171023657947</v>
       </c>
       <c r="K19" t="n">
-        <v>324.3042853146709</v>
+        <v>324.304285314671</v>
       </c>
       <c r="L19" t="n">
-        <v>688.9331277238983</v>
+        <v>688.9331277239006</v>
       </c>
       <c r="M19" t="n">
-        <v>1033.090173323447</v>
+        <v>1033.09017332345</v>
       </c>
       <c r="N19" t="n">
-        <v>1374.498550029312</v>
+        <v>1374.498550029314</v>
       </c>
       <c r="O19" t="n">
-        <v>1673.828148949725</v>
+        <v>1673.828148949728</v>
       </c>
       <c r="P19" t="n">
-        <v>1906.435649383385</v>
+        <v>1906.435649383387</v>
       </c>
       <c r="Q19" t="n">
-        <v>1984.045945535899</v>
+        <v>1984.045945535901</v>
       </c>
       <c r="R19" t="n">
-        <v>1961.913498620158</v>
+        <v>1961.91349862016</v>
       </c>
       <c r="S19" t="n">
-        <v>1837.925624773715</v>
+        <v>1837.925624773717</v>
       </c>
       <c r="T19" t="n">
-        <v>1683.857019669972</v>
+        <v>1683.857019669974</v>
       </c>
       <c r="U19" t="n">
-        <v>1462.452163122347</v>
+        <v>1462.452163122348</v>
       </c>
       <c r="V19" t="n">
-        <v>1275.465685243191</v>
+        <v>1275.465685243192</v>
       </c>
       <c r="W19" t="n">
-        <v>1053.746525532961</v>
+        <v>1053.746525532962</v>
       </c>
       <c r="X19" t="n">
-        <v>893.4549849616747</v>
+        <v>893.4549849616758</v>
       </c>
       <c r="Y19" t="n">
-        <v>740.3604161448754</v>
+        <v>740.3604161448765</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1905.664831439724</v>
+        <v>1897.47221282726</v>
       </c>
       <c r="C20" t="n">
-        <v>1604.400324826043</v>
+        <v>1596.20770621358</v>
       </c>
       <c r="D20" t="n">
-        <v>1313.832636546023</v>
+        <v>1305.64001793356</v>
       </c>
       <c r="E20" t="n">
-        <v>995.7423942745102</v>
+        <v>987.5497756620464</v>
       </c>
       <c r="F20" t="n">
-        <v>652.4544998116336</v>
+        <v>644.2618811991696</v>
       </c>
       <c r="G20" t="n">
-        <v>305.0800599833609</v>
+        <v>296.8874413708969</v>
       </c>
       <c r="H20" t="n">
-        <v>75.19446991885903</v>
+        <v>75.19446991885917</v>
       </c>
       <c r="I20" t="n">
-        <v>75.19446991885903</v>
+        <v>75.19446991885917</v>
       </c>
       <c r="J20" t="n">
-        <v>431.4792498982374</v>
+        <v>264.0736008778846</v>
       </c>
       <c r="K20" t="n">
-        <v>765.2986235880837</v>
+        <v>597.892974567731</v>
       </c>
       <c r="L20" t="n">
-        <v>1216.332836836492</v>
+        <v>1048.92718781614</v>
       </c>
       <c r="M20" t="n">
-        <v>2007.894413335169</v>
+        <v>1582.459092488064</v>
       </c>
       <c r="N20" t="n">
-        <v>2554.673230393952</v>
+        <v>2129.237909546847</v>
       </c>
       <c r="O20" t="n">
-        <v>3057.645701273289</v>
+        <v>3009.202559876302</v>
       </c>
       <c r="P20" t="n">
-        <v>3452.420067630466</v>
+        <v>3452.420067630474</v>
       </c>
       <c r="Q20" t="n">
-        <v>3700.706429386149</v>
+        <v>3700.706429386156</v>
       </c>
       <c r="R20" t="n">
-        <v>3759.723495942951</v>
+        <v>3759.723495942958</v>
       </c>
       <c r="S20" t="n">
-        <v>3717.130837796777</v>
+        <v>3717.130837796784</v>
       </c>
       <c r="T20" t="n">
-        <v>3578.85110050773</v>
+        <v>3578.851100507737</v>
       </c>
       <c r="U20" t="n">
-        <v>3401.211252720767</v>
+        <v>3393.018634108304</v>
       </c>
       <c r="V20" t="n">
-        <v>3137.846375703928</v>
+        <v>3129.653757091464</v>
       </c>
       <c r="W20" t="n">
-        <v>2852.775730760544</v>
+        <v>2844.583112148081</v>
       </c>
       <c r="X20" t="n">
-        <v>2547.007982826196</v>
+        <v>2538.815364213732</v>
       </c>
       <c r="Y20" t="n">
-        <v>2224.566661177115</v>
+        <v>2216.374042564651</v>
       </c>
     </row>
     <row r="21">
@@ -5805,46 +5805,46 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>950.2262079677843</v>
+        <v>950.2262079677841</v>
       </c>
       <c r="C21" t="n">
-        <v>775.7731786866573</v>
+        <v>775.7731786866572</v>
       </c>
       <c r="D21" t="n">
-        <v>626.838769025406</v>
+        <v>626.8387690254059</v>
       </c>
       <c r="E21" t="n">
-        <v>467.6013140199506</v>
+        <v>467.6013140199504</v>
       </c>
       <c r="F21" t="n">
-        <v>321.0667560468355</v>
+        <v>321.0667560468354</v>
       </c>
       <c r="G21" t="n">
-        <v>184.7036558794536</v>
+        <v>184.7036558794537</v>
       </c>
       <c r="H21" t="n">
-        <v>94.2017615173211</v>
+        <v>94.20176151732122</v>
       </c>
       <c r="I21" t="n">
-        <v>75.19446991885903</v>
+        <v>75.19446991885917</v>
       </c>
       <c r="J21" t="n">
-        <v>168.8717394094763</v>
+        <v>168.871739409476</v>
       </c>
       <c r="K21" t="n">
-        <v>407.1359383898234</v>
+        <v>407.1359383898232</v>
       </c>
       <c r="L21" t="n">
-        <v>773.8340987024887</v>
+        <v>773.834098702489</v>
       </c>
       <c r="M21" t="n">
         <v>1221.110423924805</v>
       </c>
       <c r="N21" t="n">
-        <v>1694.63346747926</v>
+        <v>1694.633467479259</v>
       </c>
       <c r="O21" t="n">
-        <v>2105.594746897315</v>
+        <v>2105.594746897314</v>
       </c>
       <c r="P21" t="n">
         <v>2416.094338373417</v>
@@ -5859,7 +5859,7 @@
         <v>2444.153656106012</v>
       </c>
       <c r="T21" t="n">
-        <v>2251.510655783868</v>
+        <v>2251.510655783867</v>
       </c>
       <c r="U21" t="n">
         <v>2023.442808918283</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>626.4099616413666</v>
+        <v>626.4099616413675</v>
       </c>
       <c r="C22" t="n">
-        <v>525.1717890401907</v>
+        <v>525.1717890401915</v>
       </c>
       <c r="D22" t="n">
-        <v>442.7531599545858</v>
+        <v>442.7531599545866</v>
       </c>
       <c r="E22" t="n">
-        <v>362.5380766989236</v>
+        <v>362.5380766989243</v>
       </c>
       <c r="F22" t="n">
-        <v>283.3461395277442</v>
+        <v>283.3461395277447</v>
       </c>
       <c r="G22" t="n">
-        <v>183.341313229194</v>
+        <v>183.3413132291944</v>
       </c>
       <c r="H22" t="n">
-        <v>104.8221367737828</v>
+        <v>104.822136773783</v>
       </c>
       <c r="I22" t="n">
-        <v>75.19446991885903</v>
+        <v>75.19446991885917</v>
       </c>
       <c r="J22" t="n">
-        <v>120.3171023657946</v>
+        <v>120.3171023657947</v>
       </c>
       <c r="K22" t="n">
-        <v>324.3042853146709</v>
+        <v>324.3042853146711</v>
       </c>
       <c r="L22" t="n">
-        <v>640.8640837631669</v>
+        <v>640.8640837631672</v>
       </c>
       <c r="M22" t="n">
-        <v>985.0211293627159</v>
+        <v>985.0211293627162</v>
       </c>
       <c r="N22" t="n">
-        <v>1374.498550029312</v>
+        <v>1326.429506068581</v>
       </c>
       <c r="O22" t="n">
-        <v>1673.828148949725</v>
+        <v>1625.759104988994</v>
       </c>
       <c r="P22" t="n">
-        <v>1906.435649383385</v>
+        <v>1906.435649383387</v>
       </c>
       <c r="Q22" t="n">
-        <v>1984.045945535899</v>
+        <v>1984.045945535901</v>
       </c>
       <c r="R22" t="n">
-        <v>1961.913498620158</v>
+        <v>1961.91349862016</v>
       </c>
       <c r="S22" t="n">
-        <v>1837.925624773715</v>
+        <v>1837.925624773717</v>
       </c>
       <c r="T22" t="n">
-        <v>1683.857019669972</v>
+        <v>1683.857019669974</v>
       </c>
       <c r="U22" t="n">
-        <v>1462.452163122347</v>
+        <v>1462.452163122348</v>
       </c>
       <c r="V22" t="n">
-        <v>1275.465685243191</v>
+        <v>1275.465685243192</v>
       </c>
       <c r="W22" t="n">
-        <v>1053.746525532961</v>
+        <v>1053.746525532962</v>
       </c>
       <c r="X22" t="n">
-        <v>893.4549849616747</v>
+        <v>893.4549849616758</v>
       </c>
       <c r="Y22" t="n">
-        <v>740.3604161448754</v>
+        <v>740.3604161448765</v>
       </c>
     </row>
     <row r="23">
@@ -5963,28 +5963,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1905.832027737937</v>
+        <v>1905.832027737938</v>
       </c>
       <c r="C23" t="n">
-        <v>1604.567521124256</v>
+        <v>1604.567521124257</v>
       </c>
       <c r="D23" t="n">
         <v>1313.999832844237</v>
       </c>
       <c r="E23" t="n">
-        <v>995.9095905727236</v>
+        <v>995.9095905727243</v>
       </c>
       <c r="F23" t="n">
-        <v>652.6216961098469</v>
+        <v>652.6216961098476</v>
       </c>
       <c r="G23" t="n">
-        <v>305.2472562815746</v>
+        <v>305.2472562815748</v>
       </c>
       <c r="H23" t="n">
-        <v>75.36166621707272</v>
+        <v>75.36166621707274</v>
       </c>
       <c r="I23" t="n">
-        <v>75.36166621707272</v>
+        <v>75.36166621707274</v>
       </c>
       <c r="J23" t="n">
         <v>264.2407971760981</v>
@@ -5996,22 +5996,22 @@
         <v>1049.094384114353</v>
       </c>
       <c r="M23" t="n">
-        <v>1981.695003550628</v>
+        <v>1582.626288786277</v>
       </c>
       <c r="N23" t="n">
-        <v>2563.033045304636</v>
+        <v>2186.040865854519</v>
       </c>
       <c r="O23" t="n">
-        <v>3066.005516183973</v>
+        <v>3066.005516183974</v>
       </c>
       <c r="P23" t="n">
-        <v>3460.779882541151</v>
+        <v>3460.779882541152</v>
       </c>
       <c r="Q23" t="n">
-        <v>3709.066244296833</v>
+        <v>3709.066244296834</v>
       </c>
       <c r="R23" t="n">
-        <v>3768.083310853636</v>
+        <v>3768.083310853637</v>
       </c>
       <c r="S23" t="n">
         <v>3725.490652707462</v>
@@ -6020,16 +6020,16 @@
         <v>3587.210915418415</v>
       </c>
       <c r="U23" t="n">
-        <v>3401.378449018981</v>
+        <v>3401.378449018982</v>
       </c>
       <c r="V23" t="n">
-        <v>3138.013572002141</v>
+        <v>3138.013572002142</v>
       </c>
       <c r="W23" t="n">
-        <v>2852.942927058758</v>
+        <v>2852.942927058759</v>
       </c>
       <c r="X23" t="n">
-        <v>2547.175179124409</v>
+        <v>2547.17517912441</v>
       </c>
       <c r="Y23" t="n">
         <v>2224.733857475328</v>
@@ -6063,13 +6063,13 @@
         <v>94.3689578155348</v>
       </c>
       <c r="I24" t="n">
-        <v>75.36166621707272</v>
+        <v>75.36166621707274</v>
       </c>
       <c r="J24" t="n">
-        <v>169.03893570769</v>
+        <v>169.0389357076909</v>
       </c>
       <c r="K24" t="n">
-        <v>407.3031346880371</v>
+        <v>407.303134688038</v>
       </c>
       <c r="L24" t="n">
         <v>774.0012950007033</v>
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>626.5771579395803</v>
+        <v>626.5771579395812</v>
       </c>
       <c r="C25" t="n">
-        <v>525.3389853384043</v>
+        <v>525.3389853384051</v>
       </c>
       <c r="D25" t="n">
-        <v>442.9203562527995</v>
+        <v>442.9203562528002</v>
       </c>
       <c r="E25" t="n">
-        <v>362.7052729971373</v>
+        <v>362.7052729971379</v>
       </c>
       <c r="F25" t="n">
-        <v>283.5133358259578</v>
+        <v>283.5133358259583</v>
       </c>
       <c r="G25" t="n">
-        <v>183.5085095274077</v>
+        <v>183.508509527408</v>
       </c>
       <c r="H25" t="n">
-        <v>104.9893330719965</v>
+        <v>104.9893330719966</v>
       </c>
       <c r="I25" t="n">
-        <v>75.36166621707272</v>
+        <v>75.36166621707274</v>
       </c>
       <c r="J25" t="n">
         <v>120.4842986640083</v>
@@ -6154,43 +6154,43 @@
         <v>641.0312800613807</v>
       </c>
       <c r="M25" t="n">
-        <v>985.1883256609296</v>
+        <v>1033.257369621663</v>
       </c>
       <c r="N25" t="n">
-        <v>1374.665746327526</v>
+        <v>1374.665746327528</v>
       </c>
       <c r="O25" t="n">
-        <v>1673.995345247939</v>
+        <v>1673.995345247941</v>
       </c>
       <c r="P25" t="n">
-        <v>1906.602845681598</v>
+        <v>1906.6028456816</v>
       </c>
       <c r="Q25" t="n">
-        <v>1984.213141834113</v>
+        <v>1984.213141834115</v>
       </c>
       <c r="R25" t="n">
-        <v>1962.080694918372</v>
+        <v>1962.080694918374</v>
       </c>
       <c r="S25" t="n">
-        <v>1838.092821071929</v>
+        <v>1838.092821071931</v>
       </c>
       <c r="T25" t="n">
-        <v>1684.024215968186</v>
+        <v>1684.024215968188</v>
       </c>
       <c r="U25" t="n">
-        <v>1462.61935942056</v>
+        <v>1462.619359420562</v>
       </c>
       <c r="V25" t="n">
-        <v>1275.632881541404</v>
+        <v>1275.632881541406</v>
       </c>
       <c r="W25" t="n">
-        <v>1053.913721831175</v>
+        <v>1053.913721831176</v>
       </c>
       <c r="X25" t="n">
-        <v>893.6221812598883</v>
+        <v>893.6221812598894</v>
       </c>
       <c r="Y25" t="n">
-        <v>740.5276124430891</v>
+        <v>740.5276124430901</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2074.066659449757</v>
+        <v>2074.066659449761</v>
       </c>
       <c r="C26" t="n">
-        <v>1746.186084310408</v>
+        <v>1746.186084310411</v>
       </c>
       <c r="D26" t="n">
-        <v>1429.002327504721</v>
+        <v>1429.002327504723</v>
       </c>
       <c r="E26" t="n">
-        <v>1084.29601670754</v>
+        <v>1084.296016707542</v>
       </c>
       <c r="F26" t="n">
-        <v>714.3920537189954</v>
+        <v>714.3920537189965</v>
       </c>
       <c r="G26" t="n">
-        <v>340.401545365055</v>
+        <v>340.4015453650554</v>
       </c>
       <c r="H26" t="n">
-        <v>83.89988677488419</v>
+        <v>83.89988677488499</v>
       </c>
       <c r="I26" t="n">
-        <v>82.98492981541595</v>
+        <v>82.98492981541612</v>
       </c>
       <c r="J26" t="n">
-        <v>439.2697097947944</v>
+        <v>271.8640607744415</v>
       </c>
       <c r="K26" t="n">
-        <v>773.0890834846407</v>
+        <v>605.6834344642879</v>
       </c>
       <c r="L26" t="n">
-        <v>1224.123296733049</v>
+        <v>1056.717647712696</v>
       </c>
       <c r="M26" t="n">
-        <v>1964.443952995151</v>
+        <v>1590.249552384621</v>
       </c>
       <c r="N26" t="n">
-        <v>2944.196225221798</v>
+        <v>2137.028369443403</v>
       </c>
       <c r="O26" t="n">
-        <v>3447.168696101135</v>
+        <v>2918.39613425807</v>
       </c>
       <c r="P26" t="n">
-        <v>3841.943062458312</v>
+        <v>3631.751221705016</v>
       </c>
       <c r="Q26" t="n">
-        <v>4090.229424213995</v>
+        <v>4090.229424214004</v>
       </c>
       <c r="R26" t="n">
-        <v>4149.246490770797</v>
+        <v>4149.246490770806</v>
       </c>
       <c r="S26" t="n">
-        <v>4080.037764098955</v>
+        <v>4080.037764098964</v>
       </c>
       <c r="T26" t="n">
-        <v>3915.14195828424</v>
+        <v>3915.141958284248</v>
       </c>
       <c r="U26" t="n">
-        <v>3702.69342335914</v>
+        <v>3702.693423359146</v>
       </c>
       <c r="V26" t="n">
-        <v>3412.712477816632</v>
+        <v>3412.712477816638</v>
       </c>
       <c r="W26" t="n">
-        <v>3101.025764347581</v>
+        <v>3101.025764347587</v>
       </c>
       <c r="X26" t="n">
-        <v>2768.641947887564</v>
+        <v>2768.64194788757</v>
       </c>
       <c r="Y26" t="n">
-        <v>2419.584557712816</v>
+        <v>2419.58455771282</v>
       </c>
     </row>
     <row r="27">
@@ -6279,37 +6279,37 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>958.0166678643412</v>
+        <v>958.0166678643415</v>
       </c>
       <c r="C27" t="n">
-        <v>783.5636385832142</v>
+        <v>783.5636385832145</v>
       </c>
       <c r="D27" t="n">
-        <v>634.629228921963</v>
+        <v>634.6292289219632</v>
       </c>
       <c r="E27" t="n">
-        <v>475.3917739165074</v>
+        <v>475.3917739165076</v>
       </c>
       <c r="F27" t="n">
-        <v>328.8572159433924</v>
+        <v>328.8572159433926</v>
       </c>
       <c r="G27" t="n">
-        <v>192.4941157760105</v>
+        <v>192.4941157760107</v>
       </c>
       <c r="H27" t="n">
-        <v>101.992221413878</v>
+        <v>101.9922214138782</v>
       </c>
       <c r="I27" t="n">
-        <v>82.98492981541595</v>
+        <v>82.98492981541612</v>
       </c>
       <c r="J27" t="n">
-        <v>176.6621993060332</v>
+        <v>176.6621993060334</v>
       </c>
       <c r="K27" t="n">
-        <v>414.9263982863803</v>
+        <v>414.9263982863805</v>
       </c>
       <c r="L27" t="n">
-        <v>781.6245585990466</v>
+        <v>781.6245585990457</v>
       </c>
       <c r="M27" t="n">
         <v>1228.900883821362</v>
@@ -6339,7 +6339,7 @@
         <v>2031.23326881484</v>
       </c>
       <c r="V27" t="n">
-        <v>1796.081160583097</v>
+        <v>1796.081160583098</v>
       </c>
       <c r="W27" t="n">
         <v>1541.843803854896</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>819.3059924920669</v>
+        <v>668.7020501199454</v>
       </c>
       <c r="C28" t="n">
-        <v>691.4517513652231</v>
+        <v>540.8478089931011</v>
       </c>
       <c r="D28" t="n">
-        <v>582.4170537539504</v>
+        <v>431.8131113818279</v>
       </c>
       <c r="E28" t="n">
-        <v>475.5859019726204</v>
+        <v>324.9819596004972</v>
       </c>
       <c r="F28" t="n">
-        <v>369.7778962757731</v>
+        <v>219.1739539036494</v>
       </c>
       <c r="G28" t="n">
-        <v>243.1570014515551</v>
+        <v>139.2286651960083</v>
       </c>
       <c r="H28" t="n">
-        <v>138.021756470476</v>
+        <v>139.2286651960083</v>
       </c>
       <c r="I28" t="n">
-        <v>82.98492981541595</v>
+        <v>82.98492981541612</v>
       </c>
       <c r="J28" t="n">
-        <v>168.3719734215733</v>
+        <v>168.3719734215729</v>
       </c>
       <c r="K28" t="n">
-        <v>412.6235675296715</v>
+        <v>412.6235675296705</v>
       </c>
       <c r="L28" t="n">
-        <v>769.4477771373895</v>
+        <v>769.4477771373878</v>
       </c>
       <c r="M28" t="n">
-        <v>1153.86923389616</v>
+        <v>1153.869233896158</v>
       </c>
       <c r="N28" t="n">
-        <v>1535.542021761247</v>
+        <v>1535.542021761244</v>
       </c>
       <c r="O28" t="n">
-        <v>1875.136031840882</v>
+        <v>1875.136031840879</v>
       </c>
       <c r="P28" t="n">
-        <v>2148.007943433763</v>
+        <v>2148.007943433759</v>
       </c>
       <c r="Q28" t="n">
-        <v>2265.8826507455</v>
+        <v>2265.882650745495</v>
       </c>
       <c r="R28" t="n">
-        <v>2217.134135304091</v>
+        <v>2217.134135304085</v>
       </c>
       <c r="S28" t="n">
-        <v>2217.134135304091</v>
+        <v>2066.530192931974</v>
       </c>
       <c r="T28" t="n">
-        <v>2036.44946167468</v>
+        <v>1885.845519302563</v>
       </c>
       <c r="U28" t="n">
-        <v>1788.428536601386</v>
+        <v>1637.824594229268</v>
       </c>
       <c r="V28" t="n">
-        <v>1574.825990196563</v>
+        <v>1424.222047824444</v>
       </c>
       <c r="W28" t="n">
-        <v>1326.490761960665</v>
+        <v>1175.886819588545</v>
       </c>
       <c r="X28" t="n">
-        <v>1139.583152863711</v>
+        <v>988.9792104915903</v>
       </c>
       <c r="Y28" t="n">
-        <v>959.8725155212436</v>
+        <v>809.2685731491226</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2074.066659449757</v>
+        <v>2074.06665944976</v>
       </c>
       <c r="C29" t="n">
-        <v>1746.186084310408</v>
+        <v>1746.18608431041</v>
       </c>
       <c r="D29" t="n">
-        <v>1429.002327504721</v>
+        <v>1429.002327504722</v>
       </c>
       <c r="E29" t="n">
-        <v>1084.296016707539</v>
+        <v>1084.296016707541</v>
       </c>
       <c r="F29" t="n">
-        <v>714.3920537189947</v>
+        <v>714.3920537189955</v>
       </c>
       <c r="G29" t="n">
-        <v>340.4015453650539</v>
+        <v>340.4015453650553</v>
       </c>
       <c r="H29" t="n">
-        <v>83.89988677488417</v>
+        <v>83.89988677488498</v>
       </c>
       <c r="I29" t="n">
-        <v>82.98492981541592</v>
+        <v>82.98492981541611</v>
       </c>
       <c r="J29" t="n">
-        <v>271.8640607744413</v>
+        <v>271.8640607744415</v>
       </c>
       <c r="K29" t="n">
-        <v>605.6834344642878</v>
+        <v>605.6834344642879</v>
       </c>
       <c r="L29" t="n">
-        <v>1470.202250117642</v>
+        <v>1056.717647712696</v>
       </c>
       <c r="M29" t="n">
-        <v>2397.417408163014</v>
+        <v>1590.249552384621</v>
       </c>
       <c r="N29" t="n">
-        <v>2944.196225221797</v>
+        <v>2567.204045771688</v>
       </c>
       <c r="O29" t="n">
-        <v>3447.168696101134</v>
+        <v>3447.168696101143</v>
       </c>
       <c r="P29" t="n">
-        <v>3841.943062458311</v>
+        <v>3841.943062458321</v>
       </c>
       <c r="Q29" t="n">
-        <v>4090.229424213994</v>
+        <v>4090.229424214003</v>
       </c>
       <c r="R29" t="n">
-        <v>4149.246490770796</v>
+        <v>4149.246490770805</v>
       </c>
       <c r="S29" t="n">
-        <v>4080.037764098955</v>
+        <v>4080.037764098963</v>
       </c>
       <c r="T29" t="n">
-        <v>3915.14195828424</v>
+        <v>3915.141958284248</v>
       </c>
       <c r="U29" t="n">
-        <v>3702.693423359139</v>
+        <v>3702.693423359146</v>
       </c>
       <c r="V29" t="n">
-        <v>3412.712477816632</v>
+        <v>3412.712477816638</v>
       </c>
       <c r="W29" t="n">
-        <v>3101.025764347581</v>
+        <v>3101.025764347586</v>
       </c>
       <c r="X29" t="n">
-        <v>2768.641947887564</v>
+        <v>2768.641947887569</v>
       </c>
       <c r="Y29" t="n">
-        <v>2419.584557712815</v>
+        <v>2419.584557712819</v>
       </c>
     </row>
     <row r="30">
@@ -6516,37 +6516,37 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>958.0166678643412</v>
+        <v>958.0166678643415</v>
       </c>
       <c r="C30" t="n">
-        <v>783.5636385832142</v>
+        <v>783.5636385832145</v>
       </c>
       <c r="D30" t="n">
-        <v>634.629228921963</v>
+        <v>634.6292289219632</v>
       </c>
       <c r="E30" t="n">
-        <v>475.3917739165074</v>
+        <v>475.3917739165076</v>
       </c>
       <c r="F30" t="n">
-        <v>328.8572159433924</v>
+        <v>328.8572159433926</v>
       </c>
       <c r="G30" t="n">
-        <v>192.4941157760105</v>
+        <v>192.4941157760107</v>
       </c>
       <c r="H30" t="n">
-        <v>101.992221413878</v>
+        <v>101.9922214138782</v>
       </c>
       <c r="I30" t="n">
-        <v>82.98492981541592</v>
+        <v>82.98492981541611</v>
       </c>
       <c r="J30" t="n">
-        <v>176.6621993060332</v>
+        <v>176.6621993060334</v>
       </c>
       <c r="K30" t="n">
-        <v>414.9263982863814</v>
+        <v>414.9263982863805</v>
       </c>
       <c r="L30" t="n">
-        <v>781.6245585990466</v>
+        <v>781.6245585990457</v>
       </c>
       <c r="M30" t="n">
         <v>1228.900883821362</v>
@@ -6576,7 +6576,7 @@
         <v>2031.23326881484</v>
       </c>
       <c r="V30" t="n">
-        <v>1796.081160583097</v>
+        <v>1796.081160583098</v>
       </c>
       <c r="W30" t="n">
         <v>1541.843803854896</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>668.702050119956</v>
+        <v>668.7020501199459</v>
       </c>
       <c r="C31" t="n">
-        <v>540.8478089931122</v>
+        <v>540.8478089931014</v>
       </c>
       <c r="D31" t="n">
-        <v>431.8131113818395</v>
+        <v>431.8131113818282</v>
       </c>
       <c r="E31" t="n">
-        <v>324.9819596005094</v>
+        <v>324.9819596004975</v>
       </c>
       <c r="F31" t="n">
-        <v>219.1739539036621</v>
+        <v>314.7410696207145</v>
       </c>
       <c r="G31" t="n">
-        <v>92.55305907944337</v>
+        <v>188.1201747964959</v>
       </c>
       <c r="H31" t="n">
-        <v>82.98492981541592</v>
+        <v>82.98492981541611</v>
       </c>
       <c r="I31" t="n">
-        <v>82.98492981541592</v>
+        <v>82.98492981541611</v>
       </c>
       <c r="J31" t="n">
-        <v>168.3719734215734</v>
+        <v>168.3719734215729</v>
       </c>
       <c r="K31" t="n">
-        <v>412.6235675296716</v>
+        <v>412.6235675296705</v>
       </c>
       <c r="L31" t="n">
-        <v>769.4477771373895</v>
+        <v>769.4477771373878</v>
       </c>
       <c r="M31" t="n">
-        <v>1153.86923389616</v>
+        <v>1153.869233896158</v>
       </c>
       <c r="N31" t="n">
-        <v>1535.542021761247</v>
+        <v>1535.542021761244</v>
       </c>
       <c r="O31" t="n">
-        <v>1875.136031840882</v>
+        <v>1875.136031840879</v>
       </c>
       <c r="P31" t="n">
-        <v>2148.007943433763</v>
+        <v>2148.007943433759</v>
       </c>
       <c r="Q31" t="n">
-        <v>2265.8826507455</v>
+        <v>2265.882650745495</v>
       </c>
       <c r="R31" t="n">
-        <v>2217.134135304091</v>
+        <v>2217.134135304086</v>
       </c>
       <c r="S31" t="n">
-        <v>2066.53019293198</v>
+        <v>2066.530192931974</v>
       </c>
       <c r="T31" t="n">
-        <v>1885.845519302569</v>
+        <v>1885.845519302563</v>
       </c>
       <c r="U31" t="n">
-        <v>1637.824594229276</v>
+        <v>1637.824594229268</v>
       </c>
       <c r="V31" t="n">
-        <v>1424.222047824452</v>
+        <v>1424.222047824444</v>
       </c>
       <c r="W31" t="n">
-        <v>1175.886819588554</v>
+        <v>1175.886819588546</v>
       </c>
       <c r="X31" t="n">
-        <v>988.9792104915997</v>
+        <v>988.9792104915907</v>
       </c>
       <c r="Y31" t="n">
-        <v>809.2685731491326</v>
+        <v>809.2685731491231</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2061.441986396077</v>
+        <v>2061.441986396081</v>
       </c>
       <c r="C32" t="n">
-        <v>1735.421349995874</v>
+        <v>1735.421349995878</v>
       </c>
       <c r="D32" t="n">
-        <v>1420.097531929332</v>
+        <v>1420.097531929335</v>
       </c>
       <c r="E32" t="n">
-        <v>1077.251159871296</v>
+        <v>1077.251159871299</v>
       </c>
       <c r="F32" t="n">
-        <v>709.2071356218976</v>
+        <v>709.2071356218999</v>
       </c>
       <c r="G32" t="n">
-        <v>337.0765660071031</v>
+        <v>337.076566007104</v>
       </c>
       <c r="H32" t="n">
-        <v>82.43484615607902</v>
+        <v>82.43484615607922</v>
       </c>
       <c r="I32" t="n">
-        <v>82.43484615607902</v>
+        <v>82.43484615607922</v>
       </c>
       <c r="J32" t="n">
-        <v>271.3139771151044</v>
+        <v>271.3139771151046</v>
       </c>
       <c r="K32" t="n">
-        <v>926.0373092504038</v>
+        <v>887.3143964337294</v>
       </c>
       <c r="L32" t="n">
-        <v>1391.362922366341</v>
+        <v>1338.348609682138</v>
       </c>
       <c r="M32" t="n">
-        <v>2369.913225196169</v>
+        <v>1871.880514354062</v>
       </c>
       <c r="N32" t="n">
-        <v>2916.692042254952</v>
+        <v>2851.632786580709</v>
       </c>
       <c r="O32" t="n">
-        <v>3419.664513134288</v>
+        <v>3354.605257460046</v>
       </c>
       <c r="P32" t="n">
-        <v>3814.438879491466</v>
+        <v>3749.379623817224</v>
       </c>
       <c r="Q32" t="n">
-        <v>4062.725241247148</v>
+        <v>3997.665985572906</v>
       </c>
       <c r="R32" t="n">
-        <v>4121.742307803951</v>
+        <v>4121.742307803961</v>
       </c>
       <c r="S32" t="n">
-        <v>4054.393519871254</v>
+        <v>4054.393519871264</v>
       </c>
       <c r="T32" t="n">
-        <v>3891.357652795685</v>
+        <v>3891.357652795695</v>
       </c>
       <c r="U32" t="n">
-        <v>3680.769056609731</v>
+        <v>3680.769056609739</v>
       </c>
       <c r="V32" t="n">
-        <v>3392.648049806369</v>
+        <v>3392.648049806376</v>
       </c>
       <c r="W32" t="n">
-        <v>3082.821275076463</v>
+        <v>3082.82127507647</v>
       </c>
       <c r="X32" t="n">
-        <v>2752.297397355592</v>
+        <v>2752.297397355598</v>
       </c>
       <c r="Y32" t="n">
-        <v>2405.099945919989</v>
+        <v>2405.099945919995</v>
       </c>
     </row>
     <row r="33">
@@ -6753,40 +6753,40 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>957.4665842050043</v>
+        <v>957.4665842050046</v>
       </c>
       <c r="C33" t="n">
-        <v>783.0135549238773</v>
+        <v>783.0135549238776</v>
       </c>
       <c r="D33" t="n">
-        <v>634.0791452626261</v>
+        <v>634.0791452626263</v>
       </c>
       <c r="E33" t="n">
-        <v>474.8416902571705</v>
+        <v>474.8416902571707</v>
       </c>
       <c r="F33" t="n">
-        <v>328.3071322840555</v>
+        <v>328.3071322840557</v>
       </c>
       <c r="G33" t="n">
-        <v>191.9440321166736</v>
+        <v>191.9440321166738</v>
       </c>
       <c r="H33" t="n">
-        <v>101.4421377545411</v>
+        <v>101.4421377545413</v>
       </c>
       <c r="I33" t="n">
-        <v>82.43484615607902</v>
+        <v>82.43484615607922</v>
       </c>
       <c r="J33" t="n">
-        <v>176.1121156466963</v>
+        <v>176.1121156466965</v>
       </c>
       <c r="K33" t="n">
-        <v>414.3763146270434</v>
+        <v>414.3763146270436</v>
       </c>
       <c r="L33" t="n">
-        <v>781.0744749397086</v>
+        <v>781.0744749397088</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.350800162024</v>
+        <v>1228.350800162025</v>
       </c>
       <c r="N33" t="n">
         <v>1701.873843716479</v>
@@ -6795,7 +6795,7 @@
         <v>2112.835123134534</v>
       </c>
       <c r="P33" t="n">
-        <v>2423.334714610636</v>
+        <v>2423.334714610637</v>
       </c>
       <c r="Q33" t="n">
         <v>2580.976272257237</v>
@@ -6822,7 +6822,7 @@
         <v>1333.442219990026</v>
       </c>
       <c r="Y33" t="n">
-        <v>1125.681921225072</v>
+        <v>1125.681921225073</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>699.474822778825</v>
+        <v>699.4748227788136</v>
       </c>
       <c r="C34" t="n">
-        <v>573.4805203911269</v>
+        <v>573.4805203911147</v>
       </c>
       <c r="D34" t="n">
-        <v>466.3057615189999</v>
+        <v>466.3057615189871</v>
       </c>
       <c r="E34" t="n">
-        <v>361.3345484768156</v>
+        <v>361.3345484768021</v>
       </c>
       <c r="F34" t="n">
-        <v>257.3864815191141</v>
+        <v>361.3345484768021</v>
       </c>
       <c r="G34" t="n">
-        <v>240.0939490394583</v>
+        <v>240.0939490394599</v>
       </c>
       <c r="H34" t="n">
-        <v>136.8186427975249</v>
+        <v>136.8186427975258</v>
       </c>
       <c r="I34" t="n">
-        <v>82.43484615607902</v>
+        <v>82.43484615607922</v>
       </c>
       <c r="J34" t="n">
-        <v>169.6448157204732</v>
+        <v>169.6448157204725</v>
       </c>
       <c r="K34" t="n">
-        <v>415.7193357868081</v>
+        <v>415.7193357868068</v>
       </c>
       <c r="L34" t="n">
-        <v>774.3664713527628</v>
+        <v>774.3664713527608</v>
       </c>
       <c r="M34" t="n">
-        <v>1160.61085406977</v>
+        <v>1160.610854069768</v>
       </c>
       <c r="N34" t="n">
-        <v>1544.106567893093</v>
+        <v>1544.10656789309</v>
       </c>
       <c r="O34" t="n">
-        <v>1885.523503930965</v>
+        <v>1885.523503930962</v>
       </c>
       <c r="P34" t="n">
-        <v>2160.218341482083</v>
+        <v>2160.218341482079</v>
       </c>
       <c r="Q34" t="n">
-        <v>2279.915974752056</v>
+        <v>2279.915974752052</v>
       </c>
       <c r="R34" t="n">
-        <v>2233.027398049793</v>
+        <v>2233.027398049787</v>
       </c>
       <c r="S34" t="n">
-        <v>2084.283394416828</v>
+        <v>2084.283394416821</v>
       </c>
       <c r="T34" t="n">
-        <v>1905.458659526563</v>
+        <v>1905.458659526556</v>
       </c>
       <c r="U34" t="n">
-        <v>1659.297673192415</v>
+        <v>1659.297673192408</v>
       </c>
       <c r="V34" t="n">
-        <v>1447.555065526737</v>
+        <v>1447.555065526729</v>
       </c>
       <c r="W34" t="n">
-        <v>1201.079776029985</v>
+        <v>1201.079776029977</v>
       </c>
       <c r="X34" t="n">
-        <v>1016.032105672177</v>
+        <v>1016.032105672167</v>
       </c>
       <c r="Y34" t="n">
-        <v>838.1814070688559</v>
+        <v>838.1814070688453</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1902.153709177237</v>
+        <v>1902.153709177239</v>
       </c>
       <c r="C35" t="n">
-        <v>1601.474389607304</v>
+        <v>1601.474389607306</v>
       </c>
       <c r="D35" t="n">
-        <v>1311.491888371032</v>
+        <v>1311.491888371034</v>
       </c>
       <c r="E35" t="n">
-        <v>993.9868331432667</v>
+        <v>993.986833143268</v>
       </c>
       <c r="F35" t="n">
-        <v>651.284125724138</v>
+        <v>651.2841257241388</v>
       </c>
       <c r="G35" t="n">
-        <v>304.4948729396131</v>
+        <v>304.4948729396136</v>
       </c>
       <c r="H35" t="n">
-        <v>75.19446991885903</v>
+        <v>75.19446991885917</v>
       </c>
       <c r="I35" t="n">
-        <v>75.19446991885903</v>
+        <v>75.19446991885917</v>
       </c>
       <c r="J35" t="n">
-        <v>431.4792498982374</v>
+        <v>264.0736008778846</v>
       </c>
       <c r="K35" t="n">
-        <v>765.2986235880837</v>
+        <v>918.796933013184</v>
       </c>
       <c r="L35" t="n">
-        <v>1216.332836836492</v>
+        <v>1369.831146261592</v>
       </c>
       <c r="M35" t="n">
-        <v>1749.864741508417</v>
+        <v>2007.894413335177</v>
       </c>
       <c r="N35" t="n">
-        <v>2296.643558567199</v>
+        <v>2554.673230393959</v>
       </c>
       <c r="O35" t="n">
-        <v>2799.616029446536</v>
+        <v>3057.645701273296</v>
       </c>
       <c r="P35" t="n">
-        <v>3387.360811956214</v>
+        <v>3452.420067630474</v>
       </c>
       <c r="Q35" t="n">
-        <v>3635.647173711896</v>
+        <v>3700.706429386156</v>
       </c>
       <c r="R35" t="n">
-        <v>3759.723495942952</v>
+        <v>3759.723495942958</v>
       </c>
       <c r="S35" t="n">
-        <v>3717.716024840525</v>
+        <v>3717.716024840532</v>
       </c>
       <c r="T35" t="n">
-        <v>3580.021474595226</v>
+        <v>3580.021474595232</v>
       </c>
       <c r="U35" t="n">
-        <v>3394.774195239541</v>
+        <v>3394.774195239547</v>
       </c>
       <c r="V35" t="n">
-        <v>3131.994505266449</v>
+        <v>3131.994505266455</v>
       </c>
       <c r="W35" t="n">
-        <v>2847.509047366814</v>
+        <v>2847.509047366819</v>
       </c>
       <c r="X35" t="n">
-        <v>2542.326486476213</v>
+        <v>2542.326486476217</v>
       </c>
       <c r="Y35" t="n">
-        <v>2220.47035187088</v>
+        <v>2220.470351870883</v>
       </c>
     </row>
     <row r="36">
@@ -6990,34 +6990,34 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>950.2262079677843</v>
+        <v>950.2262079677845</v>
       </c>
       <c r="C36" t="n">
-        <v>775.7731786866573</v>
+        <v>775.7731786866575</v>
       </c>
       <c r="D36" t="n">
-        <v>626.838769025406</v>
+        <v>626.8387690254062</v>
       </c>
       <c r="E36" t="n">
-        <v>467.6013140199506</v>
+        <v>467.6013140199507</v>
       </c>
       <c r="F36" t="n">
-        <v>321.0667560468355</v>
+        <v>321.0667560468356</v>
       </c>
       <c r="G36" t="n">
-        <v>184.7036558794536</v>
+        <v>184.7036558794537</v>
       </c>
       <c r="H36" t="n">
-        <v>94.2017615173211</v>
+        <v>94.20176151732124</v>
       </c>
       <c r="I36" t="n">
-        <v>75.19446991885903</v>
+        <v>75.19446991885917</v>
       </c>
       <c r="J36" t="n">
-        <v>168.8717394094763</v>
+        <v>168.8717394094764</v>
       </c>
       <c r="K36" t="n">
-        <v>407.1359383898234</v>
+        <v>407.1359383898235</v>
       </c>
       <c r="L36" t="n">
         <v>773.8340987024887</v>
@@ -7026,7 +7026,7 @@
         <v>1221.110423924805</v>
       </c>
       <c r="N36" t="n">
-        <v>1694.63346747926</v>
+        <v>1694.633467479259</v>
       </c>
       <c r="O36" t="n">
         <v>2105.594746897315</v>
@@ -7038,7 +7038,7 @@
         <v>2573.735896020017</v>
       </c>
       <c r="R36" t="n">
-        <v>2573.591542612532</v>
+        <v>2573.591542612533</v>
       </c>
       <c r="S36" t="n">
         <v>2444.153656106012</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>622.3136523351317</v>
+        <v>622.313652335135</v>
       </c>
       <c r="C37" t="n">
-        <v>521.6606667777036</v>
+        <v>521.6606667777064</v>
       </c>
       <c r="D37" t="n">
-        <v>439.8272247358466</v>
+        <v>439.827224735849</v>
       </c>
       <c r="E37" t="n">
-        <v>360.1973285239322</v>
+        <v>360.1973285239342</v>
       </c>
       <c r="F37" t="n">
-        <v>281.5905783965006</v>
+        <v>281.5905783965021</v>
       </c>
       <c r="G37" t="n">
-        <v>182.1709391416984</v>
+        <v>182.1709391416994</v>
       </c>
       <c r="H37" t="n">
-        <v>104.2369497300349</v>
+        <v>104.2369497300355</v>
       </c>
       <c r="I37" t="n">
-        <v>75.19446991885903</v>
+        <v>75.19446991885917</v>
       </c>
       <c r="J37" t="n">
-        <v>120.3171023657946</v>
+        <v>120.3171023657947</v>
       </c>
       <c r="K37" t="n">
-        <v>324.3042853146709</v>
+        <v>324.304285314671</v>
       </c>
       <c r="L37" t="n">
-        <v>640.8640837631669</v>
+        <v>640.8640837631672</v>
       </c>
       <c r="M37" t="n">
-        <v>985.0211293627159</v>
+        <v>985.0211293627161</v>
       </c>
       <c r="N37" t="n">
         <v>1326.429506068581</v>
       </c>
       <c r="O37" t="n">
-        <v>1625.759104988994</v>
+        <v>1664.465156249767</v>
       </c>
       <c r="P37" t="n">
-        <v>1897.072656683419</v>
+        <v>1897.072656683426</v>
       </c>
       <c r="Q37" t="n">
-        <v>1974.682952835933</v>
+        <v>1974.682952835941</v>
       </c>
       <c r="R37" t="n">
-        <v>1953.13569296394</v>
+        <v>1953.135692963947</v>
       </c>
       <c r="S37" t="n">
-        <v>1829.733006161245</v>
+        <v>1829.733006161252</v>
       </c>
       <c r="T37" t="n">
-        <v>1676.24958810125</v>
+        <v>1676.249588101256</v>
       </c>
       <c r="U37" t="n">
-        <v>1455.429918597373</v>
+        <v>1455.429918597378</v>
       </c>
       <c r="V37" t="n">
-        <v>1269.028627761964</v>
+        <v>1269.02862776197</v>
       </c>
       <c r="W37" t="n">
-        <v>1047.894655095482</v>
+        <v>1047.894655095487</v>
       </c>
       <c r="X37" t="n">
-        <v>888.188301567944</v>
+        <v>888.1883015679482</v>
       </c>
       <c r="Y37" t="n">
-        <v>735.6789197948926</v>
+        <v>735.6789197948964</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1902.153709177237</v>
+        <v>1902.153709177239</v>
       </c>
       <c r="C38" t="n">
-        <v>1601.474389607304</v>
+        <v>1601.474389607306</v>
       </c>
       <c r="D38" t="n">
-        <v>1311.491888371032</v>
+        <v>1311.491888371034</v>
       </c>
       <c r="E38" t="n">
-        <v>993.9868331432668</v>
+        <v>993.9868331432676</v>
       </c>
       <c r="F38" t="n">
-        <v>651.284125724138</v>
+        <v>651.2841257241384</v>
       </c>
       <c r="G38" t="n">
-        <v>304.4948729396131</v>
+        <v>304.4948729396137</v>
       </c>
       <c r="H38" t="n">
-        <v>75.19446991885903</v>
+        <v>75.19446991885917</v>
       </c>
       <c r="I38" t="n">
-        <v>75.19446991885903</v>
+        <v>75.19446991885917</v>
       </c>
       <c r="J38" t="n">
-        <v>431.4792498982374</v>
+        <v>264.0736008778846</v>
       </c>
       <c r="K38" t="n">
-        <v>765.2986235880837</v>
+        <v>918.796933013184</v>
       </c>
       <c r="L38" t="n">
-        <v>1216.332836836492</v>
+        <v>1369.831146261592</v>
       </c>
       <c r="M38" t="n">
-        <v>2007.89441333517</v>
+        <v>2007.894413335177</v>
       </c>
       <c r="N38" t="n">
-        <v>2554.673230393952</v>
+        <v>2554.673230393959</v>
       </c>
       <c r="O38" t="n">
-        <v>3057.645701273289</v>
+        <v>3057.645701273296</v>
       </c>
       <c r="P38" t="n">
-        <v>3452.420067630467</v>
+        <v>3452.420067630474</v>
       </c>
       <c r="Q38" t="n">
-        <v>3700.706429386149</v>
+        <v>3700.706429386156</v>
       </c>
       <c r="R38" t="n">
-        <v>3759.723495942952</v>
+        <v>3759.723495942958</v>
       </c>
       <c r="S38" t="n">
-        <v>3717.716024840525</v>
+        <v>3717.716024840531</v>
       </c>
       <c r="T38" t="n">
-        <v>3580.021474595226</v>
+        <v>3580.021474595231</v>
       </c>
       <c r="U38" t="n">
-        <v>3394.774195239541</v>
+        <v>3394.774195239546</v>
       </c>
       <c r="V38" t="n">
-        <v>3131.994505266449</v>
+        <v>3131.994505266454</v>
       </c>
       <c r="W38" t="n">
-        <v>2847.509047366814</v>
+        <v>2847.509047366818</v>
       </c>
       <c r="X38" t="n">
-        <v>2542.326486476213</v>
+        <v>2542.326486476216</v>
       </c>
       <c r="Y38" t="n">
-        <v>2220.47035187088</v>
+        <v>2220.470351870883</v>
       </c>
     </row>
     <row r="39">
@@ -7227,37 +7227,37 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>950.2262079677843</v>
+        <v>950.2262079677845</v>
       </c>
       <c r="C39" t="n">
-        <v>775.7731786866573</v>
+        <v>775.7731786866575</v>
       </c>
       <c r="D39" t="n">
-        <v>626.838769025406</v>
+        <v>626.8387690254062</v>
       </c>
       <c r="E39" t="n">
-        <v>467.6013140199506</v>
+        <v>467.6013140199507</v>
       </c>
       <c r="F39" t="n">
-        <v>321.0667560468355</v>
+        <v>321.0667560468356</v>
       </c>
       <c r="G39" t="n">
-        <v>184.7036558794536</v>
+        <v>184.7036558794537</v>
       </c>
       <c r="H39" t="n">
-        <v>94.2017615173211</v>
+        <v>94.20176151732124</v>
       </c>
       <c r="I39" t="n">
-        <v>75.19446991885903</v>
+        <v>75.19446991885917</v>
       </c>
       <c r="J39" t="n">
-        <v>168.8717394094763</v>
+        <v>168.8717394094764</v>
       </c>
       <c r="K39" t="n">
-        <v>407.1359383898244</v>
+        <v>407.1359383898235</v>
       </c>
       <c r="L39" t="n">
-        <v>773.8340987024897</v>
+        <v>773.8340987024887</v>
       </c>
       <c r="M39" t="n">
         <v>1221.110423924805</v>
@@ -7275,7 +7275,7 @@
         <v>2573.735896020017</v>
       </c>
       <c r="R39" t="n">
-        <v>2573.591542612532</v>
+        <v>2573.591542612533</v>
       </c>
       <c r="S39" t="n">
         <v>2444.153656106012</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>622.3136523351321</v>
+        <v>622.3136523351351</v>
       </c>
       <c r="C40" t="n">
-        <v>521.6606667777039</v>
+        <v>521.6606667777065</v>
       </c>
       <c r="D40" t="n">
-        <v>439.8272247358469</v>
+        <v>439.8272247358491</v>
       </c>
       <c r="E40" t="n">
-        <v>360.1973285239325</v>
+        <v>360.1973285239343</v>
       </c>
       <c r="F40" t="n">
-        <v>281.5905783965008</v>
+        <v>281.5905783965022</v>
       </c>
       <c r="G40" t="n">
-        <v>182.1709391416985</v>
+        <v>182.1709391416995</v>
       </c>
       <c r="H40" t="n">
-        <v>104.236949730035</v>
+        <v>104.2369497300355</v>
       </c>
       <c r="I40" t="n">
-        <v>75.19446991885903</v>
+        <v>75.19446991885917</v>
       </c>
       <c r="J40" t="n">
-        <v>120.3171023657946</v>
+        <v>120.3171023657947</v>
       </c>
       <c r="K40" t="n">
-        <v>324.3042853146709</v>
+        <v>324.304285314671</v>
       </c>
       <c r="L40" t="n">
-        <v>640.8640837631669</v>
+        <v>640.8640837631672</v>
       </c>
       <c r="M40" t="n">
-        <v>985.0211293627159</v>
+        <v>985.0211293627161</v>
       </c>
       <c r="N40" t="n">
         <v>1326.429506068581</v>
       </c>
       <c r="O40" t="n">
-        <v>1664.465156249761</v>
+        <v>1625.759104988994</v>
       </c>
       <c r="P40" t="n">
-        <v>1897.07265668342</v>
+        <v>1897.072656683427</v>
       </c>
       <c r="Q40" t="n">
-        <v>1974.682952835935</v>
+        <v>1974.682952835941</v>
       </c>
       <c r="R40" t="n">
-        <v>1953.135692963941</v>
+        <v>1953.135692963948</v>
       </c>
       <c r="S40" t="n">
-        <v>1829.733006161246</v>
+        <v>1829.733006161252</v>
       </c>
       <c r="T40" t="n">
-        <v>1676.249588101251</v>
+        <v>1676.249588101257</v>
       </c>
       <c r="U40" t="n">
-        <v>1455.429918597373</v>
+        <v>1455.429918597378</v>
       </c>
       <c r="V40" t="n">
-        <v>1269.028627761965</v>
+        <v>1269.02862776197</v>
       </c>
       <c r="W40" t="n">
-        <v>1047.894655095483</v>
+        <v>1047.894655095487</v>
       </c>
       <c r="X40" t="n">
-        <v>888.1883015679444</v>
+        <v>888.1883015679483</v>
       </c>
       <c r="Y40" t="n">
-        <v>735.6789197948931</v>
+        <v>735.6789197948965</v>
       </c>
     </row>
     <row r="41">
@@ -7385,34 +7385,34 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1606.686541786253</v>
+        <v>1369.318056916146</v>
       </c>
       <c r="C41" t="n">
-        <v>1446.825890789496</v>
+        <v>1047.805172923807</v>
       </c>
       <c r="D41" t="n">
-        <v>1136.009825130819</v>
+        <v>1047.805172923807</v>
       </c>
       <c r="E41" t="n">
-        <v>797.6712054806478</v>
+        <v>1047.805172923807</v>
       </c>
       <c r="F41" t="n">
-        <v>434.1349336391136</v>
+        <v>684.2689010822733</v>
       </c>
       <c r="G41" t="n">
-        <v>66.51211643218339</v>
+        <v>316.646083875343</v>
       </c>
       <c r="H41" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I41" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J41" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K41" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L41" t="n">
         <v>1040.244834329464</v>
@@ -7433,10 +7433,10 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R41" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S41" t="n">
-        <v>3262.764786084338</v>
+        <v>3262.764786084339</v>
       </c>
       <c r="T41" t="n">
         <v>3104.236671416634</v>
@@ -7445,16 +7445,16 @@
         <v>2898.155827638544</v>
       </c>
       <c r="V41" t="n">
-        <v>2614.542573243046</v>
+        <v>2682.49311069498</v>
       </c>
       <c r="W41" t="n">
-        <v>2614.542573243046</v>
+        <v>2377.174088372939</v>
       </c>
       <c r="X41" t="n">
-        <v>2288.526447930039</v>
+        <v>2051.157963059933</v>
       </c>
       <c r="Y41" t="n">
-        <v>1945.836748902301</v>
+        <v>1708.468264032194</v>
       </c>
     </row>
     <row r="42">
@@ -7482,19 +7482,19 @@
         <v>176.021302392778</v>
       </c>
       <c r="H42" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I42" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J42" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228011</v>
       </c>
       <c r="K42" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031482</v>
       </c>
       <c r="L42" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M42" t="n">
         <v>1212.428070438129</v>
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>759.4662498052941</v>
+        <v>759.4662498052949</v>
       </c>
       <c r="C43" t="n">
-        <v>637.9796998254604</v>
+        <v>637.9796998254612</v>
       </c>
       <c r="D43" t="n">
-        <v>535.3126933611981</v>
+        <v>535.3126933611989</v>
       </c>
       <c r="E43" t="n">
-        <v>434.8492327268782</v>
+        <v>434.8492327268791</v>
       </c>
       <c r="F43" t="n">
-        <v>335.4089181770411</v>
+        <v>335.4089181770421</v>
       </c>
       <c r="G43" t="n">
-        <v>215.1557144998334</v>
+        <v>215.1557144998344</v>
       </c>
       <c r="H43" t="n">
-        <v>116.3881606657646</v>
+        <v>116.3881606657648</v>
       </c>
       <c r="I43" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J43" t="n">
         <v>158.1401341315256</v>
       </c>
       <c r="K43" t="n">
-        <v>408.6327023328085</v>
+        <v>408.6327023328086</v>
       </c>
       <c r="L43" t="n">
-        <v>771.6978860337113</v>
+        <v>771.6978860337111</v>
       </c>
       <c r="M43" t="n">
         <v>1162.360316885667</v>
@@ -7594,25 +7594,25 @@
         <v>2256.956805813347</v>
       </c>
       <c r="S43" t="n">
-        <v>2112.720554588246</v>
+        <v>2112.720554588247</v>
       </c>
       <c r="T43" t="n">
         <v>1938.403572105846</v>
       </c>
       <c r="U43" t="n">
-        <v>1696.750338179562</v>
+        <v>1696.750338179563</v>
       </c>
       <c r="V43" t="n">
         <v>1489.515482921749</v>
       </c>
       <c r="W43" t="n">
-        <v>1247.547945832861</v>
+        <v>1247.547945832862</v>
       </c>
       <c r="X43" t="n">
-        <v>1067.008027882917</v>
+        <v>1067.008027882918</v>
       </c>
       <c r="Y43" t="n">
-        <v>893.6650816874605</v>
+        <v>893.6650816874612</v>
       </c>
     </row>
     <row r="44">
@@ -7622,13 +7622,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1768.338774781834</v>
+        <v>1301.367519464212</v>
       </c>
       <c r="C44" t="n">
-        <v>1446.825890789496</v>
+        <v>979.8546354718737</v>
       </c>
       <c r="D44" t="n">
-        <v>1136.009825130819</v>
+        <v>797.6712054806478</v>
       </c>
       <c r="E44" t="n">
         <v>797.6712054806478</v>
@@ -7637,61 +7637,61 @@
         <v>434.1349336391136</v>
       </c>
       <c r="G44" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H44" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I44" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J44" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K44" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L44" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M44" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N44" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O44" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P44" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q44" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R44" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S44" t="n">
-        <v>3262.764786084338</v>
+        <v>3262.764786084339</v>
       </c>
       <c r="T44" t="n">
-        <v>3262.764786084338</v>
+        <v>3104.236671416634</v>
       </c>
       <c r="U44" t="n">
-        <v>3262.764786084338</v>
+        <v>2898.155827638544</v>
       </c>
       <c r="V44" t="n">
-        <v>2979.151531688841</v>
+        <v>2614.542573243047</v>
       </c>
       <c r="W44" t="n">
-        <v>2673.8325093668</v>
+        <v>2309.223550921006</v>
       </c>
       <c r="X44" t="n">
-        <v>2347.816384053794</v>
+        <v>1983.207425607999</v>
       </c>
       <c r="Y44" t="n">
-        <v>2107.488981897883</v>
+        <v>1640.517726580261</v>
       </c>
     </row>
     <row r="45">
@@ -7722,7 +7722,7 @@
         <v>85.51940803064548</v>
       </c>
       <c r="I45" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J45" t="n">
         <v>160.1893859228007</v>
@@ -7731,19 +7731,19 @@
         <v>398.4535849031478</v>
       </c>
       <c r="L45" t="n">
-        <v>765.1517452158134</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M45" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N45" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O45" t="n">
         <v>2096.912393410638</v>
       </c>
       <c r="P45" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q45" t="n">
         <v>2565.053542533341</v>
@@ -7780,37 +7780,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>759.4662498052943</v>
+        <v>759.466249805294</v>
       </c>
       <c r="C46" t="n">
-        <v>637.9796998254607</v>
+        <v>637.9796998254603</v>
       </c>
       <c r="D46" t="n">
-        <v>535.3126933611983</v>
+        <v>535.3126933611979</v>
       </c>
       <c r="E46" t="n">
-        <v>434.8492327268785</v>
+        <v>434.8492327268781</v>
       </c>
       <c r="F46" t="n">
-        <v>335.4089181770414</v>
+        <v>335.4089181770411</v>
       </c>
       <c r="G46" t="n">
-        <v>215.1557144998337</v>
+        <v>215.1557144998333</v>
       </c>
       <c r="H46" t="n">
         <v>116.3881606657648</v>
       </c>
       <c r="I46" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J46" t="n">
         <v>158.1401341315256</v>
       </c>
       <c r="K46" t="n">
-        <v>408.6327023328084</v>
+        <v>408.6327023328086</v>
       </c>
       <c r="L46" t="n">
-        <v>771.6978860337111</v>
+        <v>771.6978860337114</v>
       </c>
       <c r="M46" t="n">
         <v>1162.360316885667</v>
@@ -7825,31 +7825,31 @@
         <v>2175.221948702824</v>
       </c>
       <c r="Q46" t="n">
-        <v>2299.337630107746</v>
+        <v>2299.337630107745</v>
       </c>
       <c r="R46" t="n">
-        <v>2256.956805813347</v>
+        <v>2256.956805813346</v>
       </c>
       <c r="S46" t="n">
-        <v>2112.720554588247</v>
+        <v>2112.720554588246</v>
       </c>
       <c r="T46" t="n">
-        <v>1938.403572105846</v>
+        <v>1938.403572105845</v>
       </c>
       <c r="U46" t="n">
-        <v>1696.750338179563</v>
+        <v>1696.750338179562</v>
       </c>
       <c r="V46" t="n">
         <v>1489.515482921749</v>
       </c>
       <c r="W46" t="n">
-        <v>1247.547945832862</v>
+        <v>1247.547945832861</v>
       </c>
       <c r="X46" t="n">
-        <v>1067.008027882918</v>
+        <v>1067.008027882917</v>
       </c>
       <c r="Y46" t="n">
-        <v>893.6650816874608</v>
+        <v>893.6650816874603</v>
       </c>
     </row>
   </sheetData>
@@ -8453,22 +8453,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>213.7089309661116</v>
+        <v>220.584976707823</v>
       </c>
       <c r="L8" t="n">
-        <v>234.4485450843435</v>
+        <v>227.8503193726002</v>
       </c>
       <c r="M8" t="n">
         <v>228.4140973485626</v>
       </c>
       <c r="N8" t="n">
-        <v>220.4623563888806</v>
+        <v>227.338402130592</v>
       </c>
       <c r="O8" t="n">
-        <v>228.5223581593316</v>
+        <v>228.2445381293635</v>
       </c>
       <c r="P8" t="n">
-        <v>230.8955412386045</v>
+        <v>224.0194954968931</v>
       </c>
       <c r="Q8" t="n">
         <v>212.3149906599047</v>
@@ -8532,13 +8532,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>140.3834836664433</v>
+        <v>133.5074379247318</v>
       </c>
       <c r="L9" t="n">
         <v>132.7267805197011</v>
       </c>
       <c r="M9" t="n">
-        <v>140.1425672528467</v>
+        <v>142.2095461972072</v>
       </c>
       <c r="N9" t="n">
         <v>131.2372344732822</v>
@@ -8547,7 +8547,7 @@
         <v>143.0864750752255</v>
       </c>
       <c r="P9" t="n">
-        <v>128.8492278044037</v>
+        <v>133.6582946017546</v>
       </c>
       <c r="Q9" t="n">
         <v>136.5557272449332</v>
@@ -8687,7 +8687,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>7.958078640513122e-13</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -9161,10 +9161,10 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>42.2175192758441</v>
+        <v>260.6360321482422</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -9179,13 +9179,13 @@
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9398,7 +9398,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -9407,16 +9407,16 @@
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>260.6360321482352</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>48.93246605756951</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
@@ -9644,13 +9644,13 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>403.0997118831824</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>34.90830777295582</v>
+        <v>57.20783839339379</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -9872,7 +9872,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -9881,19 +9881,19 @@
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>208.8775268587653</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>281.2073676114449</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -10115,16 +10115,16 @@
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>397.6598518923716</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>434.5208851800862</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
@@ -10349,16 +10349,16 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>324.1454125711647</v>
+        <v>285.0313592209883</v>
       </c>
       <c r="L32" t="n">
-        <v>14.43575744194766</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
@@ -10370,7 +10370,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10583,16 +10583,16 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>105.5872347491515</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
@@ -10601,13 +10601,13 @@
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>194.919612275253</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10820,16 +10820,16 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>260.6360321482357</v>
+        <v>105.5872347491515</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
@@ -23255,7 +23255,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>77.33295353498654</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23264,16 +23264,16 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>23.23161743843585</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>363.9465890348608</v>
       </c>
       <c r="H11" t="n">
-        <v>247.6326277687279</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23306,7 +23306,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>62.21262516958329</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23321,7 +23321,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>322.7559640598765</v>
+        <v>322.7559640598764</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23495,22 +23495,22 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>42.32535640796418</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>307.7079050020903</v>
       </c>
       <c r="E14" t="n">
-        <v>334.9552334536692</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>359.9009091231188</v>
       </c>
       <c r="G14" t="n">
-        <v>363.9465890348609</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>11.03234804464486</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23729,7 +23729,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>8.110692426340938</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -23789,7 +23789,7 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>8.110692426344089</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -23984,7 +23984,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>8.11069242633971</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24023,7 +24023,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>8.110692426345054</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -24613,13 +24613,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>46.20885005541179</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>104.083892531269</v>
       </c>
       <c r="I28" t="n">
-        <v>1.194839638276228</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,7 +24649,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>149.0979029483895</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24847,16 +24847,16 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>94.6114445598939</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>94.61144455988119</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>55.6812980267857</v>
+        <v>55.6812980267863</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -25084,10 +25084,10 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>102.9085862881253</v>
       </c>
       <c r="G34" t="n">
-        <v>106.3937393693624</v>
+        <v>3.485153081253571</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -25628,13 +25628,13 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>160.0357106656256</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>307.7079050020904</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>334.9552334536692</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -25643,7 +25643,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>247.6326277687279</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25685,10 +25685,10 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>67.27103207741379</v>
       </c>
       <c r="W41" t="n">
-        <v>302.2658320988205</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -25868,10 +25868,10 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>127.3463093107761</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>334.9552334536692</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -25916,10 +25916,10 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>156.9428335210276</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>204.0200353403094</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -25931,7 +25931,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>101.3386739031098</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26038,7 +26038,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -26077,7 +26077,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>5.400124791776761e-13</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>659000.5178815512</v>
+        <v>659000.5178815514</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>659000.5178815512</v>
+        <v>659000.5178815513</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>719313.4139327705</v>
+        <v>719313.413932771</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>719313.4139327705</v>
+        <v>719313.413932771</v>
       </c>
     </row>
     <row r="9">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>719862.183382337</v>
+        <v>719862.1833823372</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>719862.1833823371</v>
+        <v>719862.1833823372</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>659000.5178815512</v>
+        <v>659000.5178815513</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>737348.7048453344</v>
+        <v>737348.7048453343</v>
       </c>
       <c r="C2" t="n">
-        <v>737348.7048453345</v>
+        <v>737348.7048453346</v>
       </c>
       <c r="D2" t="n">
-        <v>738337.4983556077</v>
+        <v>738337.4983556076</v>
       </c>
       <c r="E2" t="n">
-        <v>688077.9089008584</v>
+        <v>688077.908900859</v>
       </c>
       <c r="F2" t="n">
-        <v>688077.9089008586</v>
+        <v>688077.9089008592</v>
       </c>
       <c r="G2" t="n">
-        <v>738356.5428724317</v>
+        <v>738356.5428724327</v>
       </c>
       <c r="H2" t="n">
-        <v>738356.5428724318</v>
+        <v>738356.5428724324</v>
       </c>
       <c r="I2" t="n">
-        <v>738937.5928778551</v>
+        <v>738937.5928778554</v>
       </c>
       <c r="J2" t="n">
-        <v>735691.269637984</v>
+        <v>735691.2696379833</v>
       </c>
       <c r="K2" t="n">
-        <v>735691.2696379836</v>
+        <v>735691.2696379835</v>
       </c>
       <c r="L2" t="n">
-        <v>736639.4881074771</v>
+        <v>736639.488107477</v>
       </c>
       <c r="M2" t="n">
-        <v>738937.5928778553</v>
+        <v>738937.5928778552</v>
       </c>
       <c r="N2" t="n">
-        <v>738937.5928778549</v>
+        <v>738937.5928778552</v>
       </c>
       <c r="O2" t="n">
-        <v>688077.9089008587</v>
+        <v>688077.908900859</v>
       </c>
       <c r="P2" t="n">
-        <v>688077.9089008587</v>
+        <v>688077.908900859</v>
       </c>
     </row>
     <row r="3">
@@ -26369,7 +26369,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>12822.27685608442</v>
+        <v>12822.27685608438</v>
       </c>
       <c r="E3" t="n">
         <v>1149270.230420471</v>
@@ -26378,25 +26378,25 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>45783.0005763405</v>
+        <v>45783.00057634078</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>555.7625852160459</v>
+        <v>555.7625852156226</v>
       </c>
       <c r="J3" t="n">
-        <v>41432.44778410653</v>
+        <v>41432.44778410673</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>17509.78636530026</v>
+        <v>17509.78636530005</v>
       </c>
       <c r="M3" t="n">
-        <v>202991.2191208771</v>
+        <v>202991.2191208772</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26424,40 +26424,40 @@
         <v>422216.2980007609</v>
       </c>
       <c r="E4" t="n">
-        <v>56995.66948357392</v>
+        <v>56995.66948357398</v>
       </c>
       <c r="F4" t="n">
-        <v>56995.66948357387</v>
+        <v>56995.66948357395</v>
       </c>
       <c r="G4" t="n">
-        <v>82523.95914795849</v>
+        <v>82523.95914795861</v>
       </c>
       <c r="H4" t="n">
-        <v>82523.95914795848</v>
+        <v>82523.95914795857</v>
       </c>
       <c r="I4" t="n">
-        <v>82771.96709163988</v>
+        <v>82771.96709163982</v>
       </c>
       <c r="J4" t="n">
-        <v>75305.11507528064</v>
+        <v>75305.11507528031</v>
       </c>
       <c r="K4" t="n">
-        <v>75305.11507528061</v>
+        <v>75305.11507528028</v>
       </c>
       <c r="L4" t="n">
-        <v>76307.41084275664</v>
+        <v>76307.41084275626</v>
       </c>
       <c r="M4" t="n">
-        <v>82889.53412719283</v>
+        <v>82889.53412719276</v>
       </c>
       <c r="N4" t="n">
-        <v>82889.53412719279</v>
+        <v>82889.53412719275</v>
       </c>
       <c r="O4" t="n">
-        <v>56995.66948357392</v>
+        <v>56995.66948357395</v>
       </c>
       <c r="P4" t="n">
-        <v>56995.66948357392</v>
+        <v>56995.66948357394</v>
       </c>
     </row>
     <row r="5">
@@ -26476,37 +26476,37 @@
         <v>34317.68491975695</v>
       </c>
       <c r="E5" t="n">
-        <v>78255.49332178173</v>
+        <v>78255.49332178175</v>
       </c>
       <c r="F5" t="n">
         <v>78255.49332178175</v>
       </c>
       <c r="G5" t="n">
-        <v>86539.32020112312</v>
+        <v>86539.32020112322</v>
       </c>
       <c r="H5" t="n">
-        <v>86539.32020112312</v>
+        <v>86539.32020112322</v>
       </c>
       <c r="I5" t="n">
         <v>86666.38938776552</v>
       </c>
       <c r="J5" t="n">
-        <v>90244.85932027084</v>
+        <v>90244.85932027093</v>
       </c>
       <c r="K5" t="n">
-        <v>90244.85932027083</v>
+        <v>90244.85932027092</v>
       </c>
       <c r="L5" t="n">
-        <v>89981.59529713742</v>
+        <v>89981.59529713751</v>
       </c>
       <c r="M5" t="n">
-        <v>86588.02432980816</v>
+        <v>86588.02432980822</v>
       </c>
       <c r="N5" t="n">
-        <v>86588.02432980815</v>
+        <v>86588.02432980822</v>
       </c>
       <c r="O5" t="n">
-        <v>78255.49332178173</v>
+        <v>78255.49332178175</v>
       </c>
       <c r="P5" t="n">
         <v>78255.49332178175</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>278197.9656792309</v>
+        <v>278193.5521013627</v>
       </c>
       <c r="C6" t="n">
-        <v>278197.965679231</v>
+        <v>278193.552101363</v>
       </c>
       <c r="D6" t="n">
-        <v>268981.2385790054</v>
+        <v>268979.5716497769</v>
       </c>
       <c r="E6" t="n">
-        <v>-596443.4843249682</v>
+        <v>-596584.7612249041</v>
       </c>
       <c r="F6" t="n">
-        <v>552826.746095503</v>
+        <v>552685.4691955673</v>
       </c>
       <c r="G6" t="n">
-        <v>523510.2629470096</v>
+        <v>523508.6489192172</v>
       </c>
       <c r="H6" t="n">
-        <v>569293.2635233502</v>
+        <v>569291.6494955578</v>
       </c>
       <c r="I6" t="n">
-        <v>568943.4738132335</v>
+        <v>568943.4738132345</v>
       </c>
       <c r="J6" t="n">
-        <v>528708.847458326</v>
+        <v>528699.8298937702</v>
       </c>
       <c r="K6" t="n">
-        <v>570141.2952424322</v>
+        <v>570132.2776778771</v>
       </c>
       <c r="L6" t="n">
-        <v>552840.6956022828</v>
+        <v>552834.3119779209</v>
       </c>
       <c r="M6" t="n">
-        <v>366468.8152999772</v>
+        <v>366468.815299977</v>
       </c>
       <c r="N6" t="n">
-        <v>569460.0344208539</v>
+        <v>569460.0344208543</v>
       </c>
       <c r="O6" t="n">
-        <v>552826.7460955031</v>
+        <v>552685.4691955671</v>
       </c>
       <c r="P6" t="n">
-        <v>552826.7460955031</v>
+        <v>552685.4691955671</v>
       </c>
     </row>
   </sheetData>
@@ -26692,40 +26692,40 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G2" t="n">
-        <v>67.02103022346361</v>
+        <v>67.02103022346348</v>
       </c>
       <c r="H2" t="n">
-        <v>67.02103022346361</v>
+        <v>67.02103022346348</v>
       </c>
       <c r="I2" t="n">
-        <v>67.02103022346361</v>
+        <v>67.02103022346348</v>
       </c>
       <c r="J2" t="n">
-        <v>40.67112238305241</v>
+        <v>40.67112238305182</v>
       </c>
       <c r="K2" t="n">
-        <v>40.67112238305241</v>
+        <v>40.67112238305182</v>
       </c>
       <c r="L2" t="n">
-        <v>42.51246173480668</v>
+        <v>42.51246173480599</v>
       </c>
       <c r="M2" t="n">
-        <v>67.60036539677398</v>
+        <v>67.60036539677354</v>
       </c>
       <c r="N2" t="n">
-        <v>67.60036539677392</v>
+        <v>67.60036539677351</v>
       </c>
       <c r="O2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="P2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
     </row>
     <row r="3">
@@ -26796,40 +26796,40 @@
         <v>6.876045741711437</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="F4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="G4" t="n">
-        <v>939.9308739857379</v>
+        <v>939.9308739857396</v>
       </c>
       <c r="H4" t="n">
-        <v>939.9308739857378</v>
+        <v>939.9308739857396</v>
       </c>
       <c r="I4" t="n">
-        <v>942.0208277134089</v>
+        <v>942.0208277134092</v>
       </c>
       <c r="J4" t="n">
-        <v>1037.311622692699</v>
+        <v>1037.311622692702</v>
       </c>
       <c r="K4" t="n">
-        <v>1037.311622692699</v>
+        <v>1037.311622692701</v>
       </c>
       <c r="L4" t="n">
-        <v>1030.435576950988</v>
+        <v>1030.43557695099</v>
       </c>
       <c r="M4" t="n">
-        <v>939.9308739857379</v>
+        <v>939.9308739857396</v>
       </c>
       <c r="N4" t="n">
-        <v>939.9308739857379</v>
+        <v>939.9308739857396</v>
       </c>
       <c r="O4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="P4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
     </row>
   </sheetData>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>20.04589360487105</v>
+        <v>20.04589360487089</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,16 +26929,16 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>20.62522877818136</v>
+        <v>20.62522877818094</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>21.88723295662533</v>
+        <v>21.88723295662506</v>
       </c>
       <c r="M2" t="n">
-        <v>25.0879036619673</v>
+        <v>25.08790366196755</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -27015,25 +27015,25 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>6.876045741711437</v>
+        <v>6.876045741711323</v>
       </c>
       <c r="E4" t="n">
-        <v>824.525409660581</v>
+        <v>824.5254096605812</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>108.5294185834455</v>
+        <v>108.529418583447</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>2.089953727671173</v>
+        <v>2.089953727669581</v>
       </c>
       <c r="J4" t="n">
-        <v>95.29079497929035</v>
+        <v>95.2907949792924</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>734.0207066953311</v>
+        <v>734.0207066953305</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>20.04589360487105</v>
+        <v>20.04589360487089</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>20.62522877818136</v>
+        <v>20.62522877818094</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27261,16 +27261,16 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>6.876045741711437</v>
+        <v>6.876045741711323</v>
       </c>
       <c r="M4" t="n">
-        <v>824.525409660581</v>
+        <v>824.5254096605812</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>108.5294185834455</v>
+        <v>108.529418583447</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27901,7 +27901,7 @@
         <v>146.7180671985084</v>
       </c>
       <c r="S8" t="n">
-        <v>207.8769805161729</v>
+        <v>201.8205594268735</v>
       </c>
       <c r="T8" t="n">
         <v>222.876261087807</v>
@@ -27910,16 +27910,16 @@
         <v>251.3416398688631</v>
       </c>
       <c r="V8" t="n">
-        <v>321.6958373808355</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>362.8550549367576</v>
       </c>
       <c r="Y8" t="n">
-        <v>379.3618929143421</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -27938,10 +27938,10 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>151.5886593661015</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>138.1931666516724</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
         <v>137.3166775988975</v>
@@ -27950,7 +27950,7 @@
         <v>111.9762305495779</v>
       </c>
       <c r="I9" t="n">
-        <v>81.59650561909949</v>
+        <v>88.47255136081093</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27977,7 +27977,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>98.49142681748486</v>
+        <v>91.61538107577343</v>
       </c>
       <c r="S9" t="n">
         <v>171.1846379684609</v>
@@ -27986,13 +27986,13 @@
         <v>200.0565464158579</v>
       </c>
       <c r="U9" t="n">
-        <v>219.0635705784533</v>
+        <v>219.8831952308653</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>225.9245414077138</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>244.8189374192082</v>
       </c>
       <c r="X9" t="n">
         <v>205.7729852034775</v>
@@ -28017,13 +28017,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>140.3775415572698</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>161.0924322276266</v>
+        <v>167.9684779693381</v>
       </c>
       <c r="H10" t="n">
         <v>162.0271147023483</v>
@@ -28056,10 +28056,10 @@
         <v>84.27785874996061</v>
       </c>
       <c r="R10" t="n">
-        <v>176.2816470990699</v>
+        <v>169.4056013573585</v>
       </c>
       <c r="S10" t="n">
-        <v>223.6244601920234</v>
+        <v>216.748414450312</v>
       </c>
       <c r="T10" t="n">
         <v>227.8494471293112</v>
@@ -28068,16 +28068,16 @@
         <v>286.3178020079934</v>
       </c>
       <c r="V10" t="n">
-        <v>245.2615975821166</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>280.4665772472916</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>218.8336096473257</v>
       </c>
       <c r="Y10" t="n">
-        <v>211.7086076103834</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28087,25 +28087,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="C11" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="D11" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="E11" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F11" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G11" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H11" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I11" t="n">
         <v>41.57692977292598</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T11" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U11" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="V11" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="W11" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X11" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y11" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="C13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="D13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="E13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="J13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="K13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="L13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="M13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="N13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="O13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="P13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Q13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="R13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="S13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="V13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="W13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="C14" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="D14" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="E14" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F14" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G14" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H14" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T14" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U14" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="V14" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="W14" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X14" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y14" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="C16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="D16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="E16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="J16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="K16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="L16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="M16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="N16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="O16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="P16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Q16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="R16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="S16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="V16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="W16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="17">
@@ -28561,25 +28561,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>67.02103022346361</v>
+        <v>67.02103022346348</v>
       </c>
       <c r="C17" t="n">
-        <v>67.02103022346361</v>
+        <v>67.02103022346348</v>
       </c>
       <c r="D17" t="n">
-        <v>67.02103022346361</v>
+        <v>67.02103022346348</v>
       </c>
       <c r="E17" t="n">
-        <v>67.02103022346361</v>
+        <v>67.02103022346348</v>
       </c>
       <c r="F17" t="n">
-        <v>67.02103022346361</v>
+        <v>67.02103022346348</v>
       </c>
       <c r="G17" t="n">
-        <v>67.02103022346361</v>
+        <v>67.02103022346348</v>
       </c>
       <c r="H17" t="n">
-        <v>67.02103022346361</v>
+        <v>67.02103022346348</v>
       </c>
       <c r="I17" t="n">
         <v>41.57692977292598</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>67.02103022346361</v>
+        <v>67.02103022346348</v>
       </c>
       <c r="T17" t="n">
-        <v>67.02103022346361</v>
+        <v>67.02103022346348</v>
       </c>
       <c r="U17" t="n">
-        <v>67.02103022346361</v>
+        <v>67.02103022346348</v>
       </c>
       <c r="V17" t="n">
-        <v>67.02103022346361</v>
+        <v>67.02103022346348</v>
       </c>
       <c r="W17" t="n">
-        <v>67.02103022346361</v>
+        <v>67.02103022346348</v>
       </c>
       <c r="X17" t="n">
-        <v>67.02103022346361</v>
+        <v>67.02103022346348</v>
       </c>
       <c r="Y17" t="n">
-        <v>67.02103022346361</v>
+        <v>67.02103022346348</v>
       </c>
     </row>
     <row r="18">
@@ -28719,28 +28719,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>67.02103022346361</v>
+        <v>67.02103022346348</v>
       </c>
       <c r="C19" t="n">
-        <v>67.02103022346361</v>
+        <v>67.02103022346348</v>
       </c>
       <c r="D19" t="n">
-        <v>67.02103022346361</v>
+        <v>67.02103022346348</v>
       </c>
       <c r="E19" t="n">
-        <v>67.02103022346361</v>
+        <v>67.02103022346348</v>
       </c>
       <c r="F19" t="n">
-        <v>67.02103022346361</v>
+        <v>67.02103022346348</v>
       </c>
       <c r="G19" t="n">
-        <v>67.02103022346361</v>
+        <v>67.02103022346348</v>
       </c>
       <c r="H19" t="n">
-        <v>67.02103022346361</v>
+        <v>67.02103022346348</v>
       </c>
       <c r="I19" t="n">
-        <v>67.02103022346361</v>
+        <v>67.02103022346348</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -28749,7 +28749,7 @@
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>48.55458985932461</v>
+        <v>48.55458985932677</v>
       </c>
       <c r="M19" t="n">
         <v>0</v>
@@ -28767,28 +28767,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>67.02103022346361</v>
+        <v>67.02103022346348</v>
       </c>
       <c r="S19" t="n">
-        <v>67.02103022346361</v>
+        <v>67.02103022346348</v>
       </c>
       <c r="T19" t="n">
-        <v>67.02103022346361</v>
+        <v>67.02103022346348</v>
       </c>
       <c r="U19" t="n">
-        <v>67.02103022346361</v>
+        <v>67.02103022346348</v>
       </c>
       <c r="V19" t="n">
-        <v>67.02103022346361</v>
+        <v>67.02103022346348</v>
       </c>
       <c r="W19" t="n">
-        <v>67.02103022346361</v>
+        <v>67.02103022346348</v>
       </c>
       <c r="X19" t="n">
-        <v>67.02103022346361</v>
+        <v>67.02103022346348</v>
       </c>
       <c r="Y19" t="n">
-        <v>67.02103022346361</v>
+        <v>67.02103022346348</v>
       </c>
     </row>
     <row r="20">
@@ -28798,28 +28798,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>67.02103022346361</v>
+        <v>67.02103022346348</v>
       </c>
       <c r="C20" t="n">
-        <v>67.02103022346361</v>
+        <v>67.02103022346348</v>
       </c>
       <c r="D20" t="n">
-        <v>67.02103022346361</v>
+        <v>67.02103022346348</v>
       </c>
       <c r="E20" t="n">
-        <v>67.02103022346361</v>
+        <v>67.02103022346348</v>
       </c>
       <c r="F20" t="n">
-        <v>67.02103022346361</v>
+        <v>67.02103022346348</v>
       </c>
       <c r="G20" t="n">
-        <v>67.02103022346361</v>
+        <v>67.02103022346348</v>
       </c>
       <c r="H20" t="n">
-        <v>67.02103022346361</v>
+        <v>67.02103022346348</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>67.02103022346361</v>
+        <v>67.02103022346348</v>
       </c>
       <c r="T20" t="n">
-        <v>67.02103022346361</v>
+        <v>67.02103022346348</v>
       </c>
       <c r="U20" t="n">
-        <v>67.02103022346361</v>
+        <v>67.02103022346348</v>
       </c>
       <c r="V20" t="n">
-        <v>67.02103022346361</v>
+        <v>67.02103022346348</v>
       </c>
       <c r="W20" t="n">
-        <v>67.02103022346361</v>
+        <v>67.02103022346348</v>
       </c>
       <c r="X20" t="n">
-        <v>67.02103022346361</v>
+        <v>67.02103022346348</v>
       </c>
       <c r="Y20" t="n">
-        <v>67.02103022346361</v>
+        <v>67.02103022346348</v>
       </c>
     </row>
     <row r="21">
@@ -28956,28 +28956,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>67.02103022346361</v>
+        <v>67.02103022346348</v>
       </c>
       <c r="C22" t="n">
-        <v>67.02103022346361</v>
+        <v>67.02103022346348</v>
       </c>
       <c r="D22" t="n">
-        <v>67.02103022346361</v>
+        <v>67.02103022346348</v>
       </c>
       <c r="E22" t="n">
-        <v>67.02103022346361</v>
+        <v>67.02103022346348</v>
       </c>
       <c r="F22" t="n">
-        <v>67.02103022346361</v>
+        <v>67.02103022346348</v>
       </c>
       <c r="G22" t="n">
-        <v>67.02103022346361</v>
+        <v>67.02103022346348</v>
       </c>
       <c r="H22" t="n">
-        <v>67.02103022346361</v>
+        <v>67.02103022346348</v>
       </c>
       <c r="I22" t="n">
-        <v>67.02103022346361</v>
+        <v>67.02103022346348</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -28992,40 +28992,40 @@
         <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>48.55458985932461</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
         <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>48.55458985932626</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>67.02103022346361</v>
+        <v>67.02103022346348</v>
       </c>
       <c r="S22" t="n">
-        <v>67.02103022346361</v>
+        <v>67.02103022346348</v>
       </c>
       <c r="T22" t="n">
-        <v>67.02103022346361</v>
+        <v>67.02103022346348</v>
       </c>
       <c r="U22" t="n">
-        <v>67.02103022346361</v>
+        <v>67.02103022346348</v>
       </c>
       <c r="V22" t="n">
-        <v>67.02103022346361</v>
+        <v>67.02103022346348</v>
       </c>
       <c r="W22" t="n">
-        <v>67.02103022346361</v>
+        <v>67.02103022346348</v>
       </c>
       <c r="X22" t="n">
-        <v>67.02103022346361</v>
+        <v>67.02103022346348</v>
       </c>
       <c r="Y22" t="n">
-        <v>67.02103022346361</v>
+        <v>67.02103022346348</v>
       </c>
     </row>
     <row r="23">
@@ -29035,25 +29035,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>67.02103022346361</v>
+        <v>67.02103022346348</v>
       </c>
       <c r="C23" t="n">
-        <v>67.02103022346361</v>
+        <v>67.02103022346348</v>
       </c>
       <c r="D23" t="n">
-        <v>67.02103022346361</v>
+        <v>67.02103022346348</v>
       </c>
       <c r="E23" t="n">
-        <v>67.02103022346361</v>
+        <v>67.02103022346348</v>
       </c>
       <c r="F23" t="n">
-        <v>67.02103022346361</v>
+        <v>67.02103022346348</v>
       </c>
       <c r="G23" t="n">
-        <v>67.02103022346361</v>
+        <v>67.02103022346348</v>
       </c>
       <c r="H23" t="n">
-        <v>67.02103022346361</v>
+        <v>67.02103022346348</v>
       </c>
       <c r="I23" t="n">
         <v>41.57692977292598</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>67.02103022346361</v>
+        <v>67.02103022346348</v>
       </c>
       <c r="T23" t="n">
-        <v>67.02103022346361</v>
+        <v>67.02103022346348</v>
       </c>
       <c r="U23" t="n">
-        <v>67.02103022346361</v>
+        <v>67.02103022346348</v>
       </c>
       <c r="V23" t="n">
-        <v>67.02103022346361</v>
+        <v>67.02103022346348</v>
       </c>
       <c r="W23" t="n">
-        <v>67.02103022346361</v>
+        <v>67.02103022346348</v>
       </c>
       <c r="X23" t="n">
-        <v>67.02103022346361</v>
+        <v>67.02103022346348</v>
       </c>
       <c r="Y23" t="n">
-        <v>67.02103022346361</v>
+        <v>67.02103022346348</v>
       </c>
     </row>
     <row r="24">
@@ -29193,28 +29193,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>67.02103022346361</v>
+        <v>67.02103022346348</v>
       </c>
       <c r="C25" t="n">
-        <v>67.02103022346361</v>
+        <v>67.02103022346348</v>
       </c>
       <c r="D25" t="n">
-        <v>67.02103022346361</v>
+        <v>67.02103022346348</v>
       </c>
       <c r="E25" t="n">
-        <v>67.02103022346361</v>
+        <v>67.02103022346348</v>
       </c>
       <c r="F25" t="n">
-        <v>67.02103022346361</v>
+        <v>67.02103022346348</v>
       </c>
       <c r="G25" t="n">
-        <v>67.02103022346361</v>
+        <v>67.02103022346348</v>
       </c>
       <c r="H25" t="n">
-        <v>67.02103022346361</v>
+        <v>67.02103022346348</v>
       </c>
       <c r="I25" t="n">
-        <v>67.02103022346361</v>
+        <v>67.02103022346348</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -29226,10 +29226,10 @@
         <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>48.55458985932682</v>
       </c>
       <c r="N25" t="n">
-        <v>48.55458985932449</v>
+        <v>0</v>
       </c>
       <c r="O25" t="n">
         <v>0</v>
@@ -29241,28 +29241,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>67.02103022346361</v>
+        <v>67.02103022346348</v>
       </c>
       <c r="S25" t="n">
-        <v>67.02103022346361</v>
+        <v>67.02103022346348</v>
       </c>
       <c r="T25" t="n">
-        <v>67.02103022346361</v>
+        <v>67.02103022346348</v>
       </c>
       <c r="U25" t="n">
-        <v>67.02103022346361</v>
+        <v>67.02103022346348</v>
       </c>
       <c r="V25" t="n">
-        <v>67.02103022346361</v>
+        <v>67.02103022346348</v>
       </c>
       <c r="W25" t="n">
-        <v>67.02103022346361</v>
+        <v>67.02103022346348</v>
       </c>
       <c r="X25" t="n">
-        <v>67.02103022346361</v>
+        <v>67.02103022346348</v>
       </c>
       <c r="Y25" t="n">
-        <v>67.02103022346361</v>
+        <v>67.02103022346348</v>
       </c>
     </row>
     <row r="26">
@@ -29272,28 +29272,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>40.67112238305241</v>
+        <v>40.67112238305182</v>
       </c>
       <c r="C26" t="n">
-        <v>40.67112238305241</v>
+        <v>40.67112238305182</v>
       </c>
       <c r="D26" t="n">
-        <v>40.67112238305241</v>
+        <v>40.67112238305182</v>
       </c>
       <c r="E26" t="n">
-        <v>40.67112238305241</v>
+        <v>40.67112238305182</v>
       </c>
       <c r="F26" t="n">
-        <v>40.67112238305241</v>
+        <v>40.67112238305182</v>
       </c>
       <c r="G26" t="n">
-        <v>40.67112238305241</v>
+        <v>40.67112238305182</v>
       </c>
       <c r="H26" t="n">
-        <v>40.67112238305241</v>
+        <v>40.67112238305182</v>
       </c>
       <c r="I26" t="n">
-        <v>40.67112238305241</v>
+        <v>40.67112238305182</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29323,25 +29323,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>40.67112238305241</v>
+        <v>40.67112238305182</v>
       </c>
       <c r="T26" t="n">
-        <v>40.67112238305241</v>
+        <v>40.67112238305182</v>
       </c>
       <c r="U26" t="n">
-        <v>40.67112238305241</v>
+        <v>40.67112238305182</v>
       </c>
       <c r="V26" t="n">
-        <v>40.67112238305241</v>
+        <v>40.67112238305182</v>
       </c>
       <c r="W26" t="n">
-        <v>40.67112238305241</v>
+        <v>40.67112238305182</v>
       </c>
       <c r="X26" t="n">
-        <v>40.67112238305241</v>
+        <v>40.67112238305182</v>
       </c>
       <c r="Y26" t="n">
-        <v>40.67112238305241</v>
+        <v>40.67112238305182</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>40.67112238305241</v>
+        <v>40.67112238305182</v>
       </c>
       <c r="C28" t="n">
-        <v>40.67112238305241</v>
+        <v>40.67112238305182</v>
       </c>
       <c r="D28" t="n">
-        <v>40.67112238305241</v>
+        <v>40.67112238305182</v>
       </c>
       <c r="E28" t="n">
-        <v>40.67112238305241</v>
+        <v>40.67112238305182</v>
       </c>
       <c r="F28" t="n">
-        <v>40.67112238305241</v>
+        <v>40.67112238305182</v>
       </c>
       <c r="G28" t="n">
-        <v>40.67112238305241</v>
+        <v>40.67112238305182</v>
       </c>
       <c r="H28" t="n">
-        <v>40.67112238305241</v>
+        <v>40.67112238305182</v>
       </c>
       <c r="I28" t="n">
-        <v>40.67112238305241</v>
+        <v>40.67112238305182</v>
       </c>
       <c r="J28" t="n">
-        <v>40.67112238305241</v>
+        <v>40.67112238305182</v>
       </c>
       <c r="K28" t="n">
-        <v>40.67112238305241</v>
+        <v>40.67112238305182</v>
       </c>
       <c r="L28" t="n">
-        <v>40.67112238305241</v>
+        <v>40.67112238305182</v>
       </c>
       <c r="M28" t="n">
-        <v>40.67112238305241</v>
+        <v>40.67112238305182</v>
       </c>
       <c r="N28" t="n">
-        <v>40.67112238305241</v>
+        <v>40.67112238305182</v>
       </c>
       <c r="O28" t="n">
-        <v>40.67112238305241</v>
+        <v>40.67112238305182</v>
       </c>
       <c r="P28" t="n">
-        <v>40.67112238305241</v>
+        <v>40.67112238305182</v>
       </c>
       <c r="Q28" t="n">
-        <v>40.67112238305241</v>
+        <v>40.67112238305182</v>
       </c>
       <c r="R28" t="n">
-        <v>40.67112238305241</v>
+        <v>40.67112238305182</v>
       </c>
       <c r="S28" t="n">
-        <v>40.67112238305241</v>
+        <v>40.67112238305182</v>
       </c>
       <c r="T28" t="n">
-        <v>40.67112238305241</v>
+        <v>40.67112238305182</v>
       </c>
       <c r="U28" t="n">
-        <v>40.67112238305241</v>
+        <v>40.67112238305182</v>
       </c>
       <c r="V28" t="n">
-        <v>40.67112238305241</v>
+        <v>40.67112238305182</v>
       </c>
       <c r="W28" t="n">
-        <v>40.67112238305241</v>
+        <v>40.67112238305182</v>
       </c>
       <c r="X28" t="n">
-        <v>40.67112238305241</v>
+        <v>40.67112238305182</v>
       </c>
       <c r="Y28" t="n">
-        <v>40.67112238305241</v>
+        <v>40.67112238305182</v>
       </c>
     </row>
     <row r="29">
@@ -29509,28 +29509,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>40.67112238305241</v>
+        <v>40.67112238305182</v>
       </c>
       <c r="C29" t="n">
-        <v>40.67112238305241</v>
+        <v>40.67112238305182</v>
       </c>
       <c r="D29" t="n">
-        <v>40.67112238305241</v>
+        <v>40.67112238305182</v>
       </c>
       <c r="E29" t="n">
-        <v>40.67112238305241</v>
+        <v>40.67112238305182</v>
       </c>
       <c r="F29" t="n">
-        <v>40.67112238305241</v>
+        <v>40.67112238305182</v>
       </c>
       <c r="G29" t="n">
-        <v>40.67112238305241</v>
+        <v>40.67112238305182</v>
       </c>
       <c r="H29" t="n">
-        <v>40.67112238305241</v>
+        <v>40.67112238305182</v>
       </c>
       <c r="I29" t="n">
-        <v>40.67112238305241</v>
+        <v>40.67112238305182</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>40.67112238305241</v>
+        <v>40.67112238305182</v>
       </c>
       <c r="T29" t="n">
-        <v>40.67112238305241</v>
+        <v>40.67112238305182</v>
       </c>
       <c r="U29" t="n">
-        <v>40.67112238305241</v>
+        <v>40.67112238305182</v>
       </c>
       <c r="V29" t="n">
-        <v>40.67112238305241</v>
+        <v>40.67112238305182</v>
       </c>
       <c r="W29" t="n">
-        <v>40.67112238305241</v>
+        <v>40.67112238305182</v>
       </c>
       <c r="X29" t="n">
-        <v>40.67112238305241</v>
+        <v>40.67112238305182</v>
       </c>
       <c r="Y29" t="n">
-        <v>40.67112238305241</v>
+        <v>40.67112238305182</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>40.67112238305241</v>
+        <v>40.67112238305182</v>
       </c>
       <c r="C31" t="n">
-        <v>40.67112238305241</v>
+        <v>40.67112238305182</v>
       </c>
       <c r="D31" t="n">
-        <v>40.67112238305241</v>
+        <v>40.67112238305182</v>
       </c>
       <c r="E31" t="n">
-        <v>40.67112238305241</v>
+        <v>40.67112238305182</v>
       </c>
       <c r="F31" t="n">
-        <v>40.67112238305241</v>
+        <v>40.67112238305182</v>
       </c>
       <c r="G31" t="n">
-        <v>40.67112238305241</v>
+        <v>40.67112238305182</v>
       </c>
       <c r="H31" t="n">
-        <v>40.67112238305241</v>
+        <v>40.67112238305182</v>
       </c>
       <c r="I31" t="n">
-        <v>40.67112238305241</v>
+        <v>40.67112238305182</v>
       </c>
       <c r="J31" t="n">
-        <v>40.67112238305241</v>
+        <v>40.67112238305182</v>
       </c>
       <c r="K31" t="n">
-        <v>40.67112238305241</v>
+        <v>40.67112238305182</v>
       </c>
       <c r="L31" t="n">
-        <v>40.67112238305241</v>
+        <v>40.67112238305182</v>
       </c>
       <c r="M31" t="n">
-        <v>40.67112238305241</v>
+        <v>40.67112238305182</v>
       </c>
       <c r="N31" t="n">
-        <v>40.67112238305241</v>
+        <v>40.67112238305182</v>
       </c>
       <c r="O31" t="n">
-        <v>40.67112238305241</v>
+        <v>40.67112238305182</v>
       </c>
       <c r="P31" t="n">
-        <v>40.67112238305241</v>
+        <v>40.67112238305182</v>
       </c>
       <c r="Q31" t="n">
-        <v>40.67112238305241</v>
+        <v>40.67112238305182</v>
       </c>
       <c r="R31" t="n">
-        <v>40.67112238305241</v>
+        <v>40.67112238305182</v>
       </c>
       <c r="S31" t="n">
-        <v>40.67112238305241</v>
+        <v>40.67112238305182</v>
       </c>
       <c r="T31" t="n">
-        <v>40.67112238305241</v>
+        <v>40.67112238305182</v>
       </c>
       <c r="U31" t="n">
-        <v>40.67112238305241</v>
+        <v>40.67112238305182</v>
       </c>
       <c r="V31" t="n">
-        <v>40.67112238305241</v>
+        <v>40.67112238305182</v>
       </c>
       <c r="W31" t="n">
-        <v>40.67112238305241</v>
+        <v>40.67112238305182</v>
       </c>
       <c r="X31" t="n">
-        <v>40.67112238305241</v>
+        <v>40.67112238305182</v>
       </c>
       <c r="Y31" t="n">
-        <v>40.67112238305241</v>
+        <v>40.67112238305182</v>
       </c>
     </row>
     <row r="32">
@@ -29746,25 +29746,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>42.51246173480668</v>
+        <v>42.51246173480599</v>
       </c>
       <c r="C32" t="n">
-        <v>42.51246173480668</v>
+        <v>42.51246173480599</v>
       </c>
       <c r="D32" t="n">
-        <v>42.51246173480668</v>
+        <v>42.51246173480599</v>
       </c>
       <c r="E32" t="n">
-        <v>42.51246173480668</v>
+        <v>42.51246173480599</v>
       </c>
       <c r="F32" t="n">
-        <v>42.51246173480668</v>
+        <v>42.51246173480599</v>
       </c>
       <c r="G32" t="n">
-        <v>42.51246173480668</v>
+        <v>42.51246173480599</v>
       </c>
       <c r="H32" t="n">
-        <v>42.51246173480668</v>
+        <v>42.51246173480599</v>
       </c>
       <c r="I32" t="n">
         <v>41.57692977292598</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>42.51246173480668</v>
+        <v>42.51246173480599</v>
       </c>
       <c r="T32" t="n">
-        <v>42.51246173480668</v>
+        <v>42.51246173480599</v>
       </c>
       <c r="U32" t="n">
-        <v>42.51246173480668</v>
+        <v>42.51246173480599</v>
       </c>
       <c r="V32" t="n">
-        <v>42.51246173480668</v>
+        <v>42.51246173480599</v>
       </c>
       <c r="W32" t="n">
-        <v>42.51246173480668</v>
+        <v>42.51246173480599</v>
       </c>
       <c r="X32" t="n">
-        <v>42.51246173480668</v>
+        <v>42.51246173480599</v>
       </c>
       <c r="Y32" t="n">
-        <v>42.51246173480668</v>
+        <v>42.51246173480599</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>42.51246173480668</v>
+        <v>42.51246173480599</v>
       </c>
       <c r="C34" t="n">
-        <v>42.51246173480668</v>
+        <v>42.51246173480599</v>
       </c>
       <c r="D34" t="n">
-        <v>42.51246173480668</v>
+        <v>42.51246173480599</v>
       </c>
       <c r="E34" t="n">
-        <v>42.51246173480668</v>
+        <v>42.51246173480599</v>
       </c>
       <c r="F34" t="n">
-        <v>42.51246173480668</v>
+        <v>42.51246173480599</v>
       </c>
       <c r="G34" t="n">
-        <v>42.51246173480668</v>
+        <v>42.51246173480599</v>
       </c>
       <c r="H34" t="n">
-        <v>42.51246173480668</v>
+        <v>42.51246173480599</v>
       </c>
       <c r="I34" t="n">
-        <v>42.51246173480668</v>
+        <v>42.51246173480599</v>
       </c>
       <c r="J34" t="n">
-        <v>42.51246173480668</v>
+        <v>42.51246173480599</v>
       </c>
       <c r="K34" t="n">
-        <v>42.51246173480668</v>
+        <v>42.51246173480599</v>
       </c>
       <c r="L34" t="n">
-        <v>42.51246173480668</v>
+        <v>42.51246173480599</v>
       </c>
       <c r="M34" t="n">
-        <v>42.51246173480668</v>
+        <v>42.51246173480599</v>
       </c>
       <c r="N34" t="n">
-        <v>42.51246173480668</v>
+        <v>42.51246173480599</v>
       </c>
       <c r="O34" t="n">
-        <v>42.51246173480668</v>
+        <v>42.51246173480599</v>
       </c>
       <c r="P34" t="n">
-        <v>42.51246173480668</v>
+        <v>42.51246173480599</v>
       </c>
       <c r="Q34" t="n">
-        <v>42.51246173480668</v>
+        <v>42.51246173480599</v>
       </c>
       <c r="R34" t="n">
-        <v>42.51246173480668</v>
+        <v>42.51246173480599</v>
       </c>
       <c r="S34" t="n">
-        <v>42.51246173480668</v>
+        <v>42.51246173480599</v>
       </c>
       <c r="T34" t="n">
-        <v>42.51246173480668</v>
+        <v>42.51246173480599</v>
       </c>
       <c r="U34" t="n">
-        <v>42.51246173480668</v>
+        <v>42.51246173480599</v>
       </c>
       <c r="V34" t="n">
-        <v>42.51246173480668</v>
+        <v>42.51246173480599</v>
       </c>
       <c r="W34" t="n">
-        <v>42.51246173480668</v>
+        <v>42.51246173480599</v>
       </c>
       <c r="X34" t="n">
-        <v>42.51246173480668</v>
+        <v>42.51246173480599</v>
       </c>
       <c r="Y34" t="n">
-        <v>42.51246173480668</v>
+        <v>42.51246173480599</v>
       </c>
     </row>
     <row r="35">
@@ -29983,25 +29983,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>67.60036539677398</v>
+        <v>67.60036539677354</v>
       </c>
       <c r="C35" t="n">
-        <v>67.60036539677398</v>
+        <v>67.60036539677354</v>
       </c>
       <c r="D35" t="n">
-        <v>67.60036539677398</v>
+        <v>67.60036539677354</v>
       </c>
       <c r="E35" t="n">
-        <v>67.60036539677398</v>
+        <v>67.60036539677354</v>
       </c>
       <c r="F35" t="n">
-        <v>67.60036539677398</v>
+        <v>67.60036539677354</v>
       </c>
       <c r="G35" t="n">
-        <v>67.60036539677398</v>
+        <v>67.60036539677354</v>
       </c>
       <c r="H35" t="n">
-        <v>67.60036539677398</v>
+        <v>67.60036539677354</v>
       </c>
       <c r="I35" t="n">
         <v>41.57692977292598</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>67.60036539677398</v>
+        <v>67.60036539677354</v>
       </c>
       <c r="T35" t="n">
-        <v>67.60036539677398</v>
+        <v>67.60036539677354</v>
       </c>
       <c r="U35" t="n">
-        <v>67.60036539677398</v>
+        <v>67.60036539677354</v>
       </c>
       <c r="V35" t="n">
-        <v>67.60036539677398</v>
+        <v>67.60036539677354</v>
       </c>
       <c r="W35" t="n">
-        <v>67.60036539677398</v>
+        <v>67.60036539677354</v>
       </c>
       <c r="X35" t="n">
-        <v>67.60036539677398</v>
+        <v>67.60036539677354</v>
       </c>
       <c r="Y35" t="n">
-        <v>67.60036539677398</v>
+        <v>67.60036539677354</v>
       </c>
     </row>
     <row r="36">
@@ -30141,28 +30141,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>67.60036539677398</v>
+        <v>67.60036539677354</v>
       </c>
       <c r="C37" t="n">
-        <v>67.60036539677398</v>
+        <v>67.60036539677354</v>
       </c>
       <c r="D37" t="n">
-        <v>67.60036539677398</v>
+        <v>67.60036539677354</v>
       </c>
       <c r="E37" t="n">
-        <v>67.60036539677398</v>
+        <v>67.60036539677354</v>
       </c>
       <c r="F37" t="n">
-        <v>67.60036539677398</v>
+        <v>67.60036539677354</v>
       </c>
       <c r="G37" t="n">
-        <v>67.60036539677398</v>
+        <v>67.60036539677354</v>
       </c>
       <c r="H37" t="n">
-        <v>67.60036539677398</v>
+        <v>67.60036539677354</v>
       </c>
       <c r="I37" t="n">
-        <v>67.60036539677398</v>
+        <v>67.60036539677354</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -30180,37 +30180,37 @@
         <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>39.09702147552832</v>
       </c>
       <c r="P37" t="n">
-        <v>39.09702147552082</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>67.60036539677398</v>
+        <v>67.60036539677354</v>
       </c>
       <c r="S37" t="n">
-        <v>67.60036539677398</v>
+        <v>67.60036539677354</v>
       </c>
       <c r="T37" t="n">
-        <v>67.60036539677398</v>
+        <v>67.60036539677354</v>
       </c>
       <c r="U37" t="n">
-        <v>67.60036539677398</v>
+        <v>67.60036539677354</v>
       </c>
       <c r="V37" t="n">
-        <v>67.60036539677398</v>
+        <v>67.60036539677354</v>
       </c>
       <c r="W37" t="n">
-        <v>67.60036539677398</v>
+        <v>67.60036539677354</v>
       </c>
       <c r="X37" t="n">
-        <v>67.60036539677398</v>
+        <v>67.60036539677354</v>
       </c>
       <c r="Y37" t="n">
-        <v>67.60036539677398</v>
+        <v>67.60036539677354</v>
       </c>
     </row>
     <row r="38">
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>67.60036539677392</v>
+        <v>67.60036539677351</v>
       </c>
       <c r="C38" t="n">
-        <v>67.60036539677392</v>
+        <v>67.60036539677351</v>
       </c>
       <c r="D38" t="n">
-        <v>67.60036539677392</v>
+        <v>67.60036539677351</v>
       </c>
       <c r="E38" t="n">
-        <v>67.60036539677392</v>
+        <v>67.60036539677351</v>
       </c>
       <c r="F38" t="n">
-        <v>67.60036539677392</v>
+        <v>67.60036539677351</v>
       </c>
       <c r="G38" t="n">
-        <v>67.60036539677392</v>
+        <v>67.60036539677351</v>
       </c>
       <c r="H38" t="n">
-        <v>67.60036539677392</v>
+        <v>67.60036539677351</v>
       </c>
       <c r="I38" t="n">
         <v>41.57692977292598</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>67.60036539677392</v>
+        <v>67.60036539677351</v>
       </c>
       <c r="T38" t="n">
-        <v>67.60036539677392</v>
+        <v>67.60036539677351</v>
       </c>
       <c r="U38" t="n">
-        <v>67.60036539677392</v>
+        <v>67.60036539677351</v>
       </c>
       <c r="V38" t="n">
-        <v>67.60036539677392</v>
+        <v>67.60036539677351</v>
       </c>
       <c r="W38" t="n">
-        <v>67.60036539677392</v>
+        <v>67.60036539677351</v>
       </c>
       <c r="X38" t="n">
-        <v>67.60036539677392</v>
+        <v>67.60036539677351</v>
       </c>
       <c r="Y38" t="n">
-        <v>67.60036539677392</v>
+        <v>67.60036539677351</v>
       </c>
     </row>
     <row r="39">
@@ -30378,28 +30378,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>67.60036539677392</v>
+        <v>67.60036539677351</v>
       </c>
       <c r="C40" t="n">
-        <v>67.60036539677392</v>
+        <v>67.60036539677351</v>
       </c>
       <c r="D40" t="n">
-        <v>67.60036539677392</v>
+        <v>67.60036539677351</v>
       </c>
       <c r="E40" t="n">
-        <v>67.60036539677392</v>
+        <v>67.60036539677351</v>
       </c>
       <c r="F40" t="n">
-        <v>67.60036539677392</v>
+        <v>67.60036539677351</v>
       </c>
       <c r="G40" t="n">
-        <v>67.60036539677392</v>
+        <v>67.60036539677351</v>
       </c>
       <c r="H40" t="n">
-        <v>67.60036539677392</v>
+        <v>67.60036539677351</v>
       </c>
       <c r="I40" t="n">
-        <v>67.60036539677392</v>
+        <v>67.60036539677351</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -30417,37 +30417,37 @@
         <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>39.09702147552213</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>39.09702147552861</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>67.60036539677392</v>
+        <v>67.60036539677351</v>
       </c>
       <c r="S40" t="n">
-        <v>67.60036539677392</v>
+        <v>67.60036539677351</v>
       </c>
       <c r="T40" t="n">
-        <v>67.60036539677392</v>
+        <v>67.60036539677351</v>
       </c>
       <c r="U40" t="n">
-        <v>67.60036539677392</v>
+        <v>67.60036539677351</v>
       </c>
       <c r="V40" t="n">
-        <v>67.60036539677392</v>
+        <v>67.60036539677351</v>
       </c>
       <c r="W40" t="n">
-        <v>67.60036539677392</v>
+        <v>67.60036539677351</v>
       </c>
       <c r="X40" t="n">
-        <v>67.60036539677392</v>
+        <v>67.60036539677351</v>
       </c>
       <c r="Y40" t="n">
-        <v>67.60036539677392</v>
+        <v>67.60036539677351</v>
       </c>
     </row>
     <row r="41">
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="C41" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="D41" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="E41" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="F41" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="G41" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="H41" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="I41" t="n">
         <v>41.57692977292598</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="T41" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="U41" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="V41" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="W41" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="X41" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="Y41" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="C43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="D43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="E43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="F43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="G43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="H43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="I43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="J43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="K43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="L43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="M43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="N43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="O43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="P43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="Q43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="R43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="S43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="T43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="U43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="V43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="W43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="X43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="Y43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
     </row>
     <row r="44">
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="C44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="D44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="E44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="F44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="G44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="H44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="I44" t="n">
         <v>41.57692977292598</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="T44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="U44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="V44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="W44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="X44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Y44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="C46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="D46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="E46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="F46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="G46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="H46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="I46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="J46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="K46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="L46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="M46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="N46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="O46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="P46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Q46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="R46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="S46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="T46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="U46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="V46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="W46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="X46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Y46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
     </row>
   </sheetData>
@@ -31838,7 +31838,7 @@
         <v>80.70516131752255</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026441</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K12" t="n">
         <v>378.5123470353157</v>
@@ -31847,7 +31847,7 @@
         <v>508.9565619138795</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233479</v>
       </c>
       <c r="N12" t="n">
         <v>609.6478166837924</v>
@@ -31987,43 +31987,43 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H14" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I14" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J14" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K14" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R14" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T14" t="n">
         <v>19.1778794245112</v>
@@ -32072,40 +32072,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K15" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O15" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002933</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R15" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32145,13 +32145,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H16" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J16" t="n">
         <v>138.937596729739</v>
@@ -32160,16 +32160,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L16" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M16" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P16" t="n">
         <v>237.6785118802169</v>
@@ -32178,16 +32178,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32312,7 +32312,7 @@
         <v>80.70516131752255</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026448</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K18" t="n">
         <v>378.5123470353157</v>
@@ -32330,7 +32330,7 @@
         <v>557.7086478970249</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002938</v>
       </c>
       <c r="Q18" t="n">
         <v>299.2156706987486</v>
@@ -32461,43 +32461,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H20" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I20" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J20" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K20" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R20" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T20" t="n">
         <v>19.1778794245112</v>
@@ -32546,40 +32546,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I21" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K21" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837933</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O21" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U21" t="n">
         <v>0.1542136840462215</v>
@@ -32619,13 +32619,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H22" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I22" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J22" t="n">
         <v>138.937596729739</v>
@@ -32634,16 +32634,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L22" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M22" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P22" t="n">
         <v>237.6785118802169</v>
@@ -32652,16 +32652,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32786,13 +32786,13 @@
         <v>80.70516131752255</v>
       </c>
       <c r="J24" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026447</v>
       </c>
       <c r="K24" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L24" t="n">
-        <v>508.9565619138805</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M24" t="n">
         <v>593.9283018233474</v>
@@ -33029,10 +33029,10 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L27" t="n">
-        <v>508.9565619138805</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M27" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233483</v>
       </c>
       <c r="N27" t="n">
         <v>609.6478166837924</v>
@@ -33263,13 +33263,13 @@
         <v>221.4611312026437</v>
       </c>
       <c r="K30" t="n">
-        <v>378.5123470353167</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L30" t="n">
         <v>508.9565619138795</v>
       </c>
       <c r="M30" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233483</v>
       </c>
       <c r="N30" t="n">
         <v>609.6478166837924</v>
@@ -33515,10 +33515,10 @@
         <v>557.7086478970249</v>
       </c>
       <c r="P33" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002933</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987494</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R33" t="n">
         <v>145.5365940905541</v>
@@ -33746,10 +33746,10 @@
         <v>593.9283018233474</v>
       </c>
       <c r="N36" t="n">
-        <v>609.6478166837933</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O36" t="n">
-        <v>557.7086478970249</v>
+        <v>557.7086478970257</v>
       </c>
       <c r="P36" t="n">
         <v>447.6103584002926</v>
@@ -33974,7 +33974,7 @@
         <v>221.4611312026437</v>
       </c>
       <c r="K39" t="n">
-        <v>378.5123470353167</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L39" t="n">
         <v>508.9565619138795</v>
@@ -33983,7 +33983,7 @@
         <v>593.9283018233474</v>
       </c>
       <c r="N39" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837933</v>
       </c>
       <c r="O39" t="n">
         <v>557.7086478970249</v>
@@ -34208,7 +34208,7 @@
         <v>80.70516131752255</v>
       </c>
       <c r="J42" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026441</v>
       </c>
       <c r="K42" t="n">
         <v>378.5123470353157</v>
@@ -34220,7 +34220,7 @@
         <v>593.9283018233474</v>
       </c>
       <c r="N42" t="n">
-        <v>609.6478166837928</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O42" t="n">
         <v>557.7086478970249</v>
@@ -34451,7 +34451,7 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138799</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M45" t="n">
         <v>593.9283018233474</v>
@@ -34466,7 +34466,7 @@
         <v>447.6103584002926</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R45" t="n">
         <v>145.5365940905541</v>
@@ -35173,22 +35173,22 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="L8" t="n">
-        <v>6.598225711743296</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="O8" t="n">
-        <v>6.876045741711437</v>
+        <v>6.598225711743297</v>
       </c>
       <c r="P8" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35252,13 +35252,13 @@
         <v>1.789158914392348</v>
       </c>
       <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
         <v>6.876045741711437</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>4.809066797350948</v>
       </c>
       <c r="N9" t="n">
         <v>6.876045741711437</v>
@@ -35267,7 +35267,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>4.809066797350949</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35407,7 +35407,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687133</v>
       </c>
       <c r="K11" t="n">
         <v>337.1912865554004</v>
@@ -35486,7 +35486,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.62350453597746</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K12" t="n">
         <v>240.6709080609567</v>
@@ -35495,7 +35495,7 @@
         <v>370.4021821340053</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013295</v>
       </c>
       <c r="N12" t="n">
         <v>478.3061046004591</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>92.55355323165875</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K13" t="n">
         <v>253.0227961629121</v>
@@ -35574,7 +35574,7 @@
         <v>366.7325087887907</v>
       </c>
       <c r="M13" t="n">
-        <v>394.6085160120763</v>
+        <v>394.6085160120764</v>
       </c>
       <c r="N13" t="n">
         <v>391.8320827861326</v>
@@ -35583,7 +35583,7 @@
         <v>349.3282668412323</v>
       </c>
       <c r="P13" t="n">
-        <v>281.9322077637029</v>
+        <v>281.932207763703</v>
       </c>
       <c r="Q13" t="n">
         <v>125.3693751564862</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302255</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N14" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O14" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K15" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P15" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859631</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35881,10 +35881,10 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687125</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K17" t="n">
-        <v>379.4088058312445</v>
+        <v>597.8273187036425</v>
       </c>
       <c r="L17" t="n">
         <v>455.5901143923319</v>
@@ -35899,13 +35899,13 @@
         <v>508.053000888219</v>
       </c>
       <c r="P17" t="n">
-        <v>720.5606943908542</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q17" t="n">
         <v>250.7943048037194</v>
       </c>
       <c r="R17" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,7 +35960,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.62350453597806</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K18" t="n">
         <v>240.6709080609567</v>
@@ -35978,7 +35978,7 @@
         <v>415.1124034525805</v>
       </c>
       <c r="P18" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859635</v>
       </c>
       <c r="Q18" t="n">
         <v>159.2338966127271</v>
@@ -36045,7 +36045,7 @@
         <v>206.0476595443195</v>
       </c>
       <c r="L19" t="n">
-        <v>368.3119620295227</v>
+        <v>368.3119620295249</v>
       </c>
       <c r="M19" t="n">
         <v>347.6333793934838</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K20" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M20" t="n">
-        <v>799.5571479784618</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N20" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O20" t="n">
-        <v>508.053000888219</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P20" t="n">
-        <v>398.7619862193716</v>
+        <v>447.6944522769414</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K21" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N21" t="n">
-        <v>478.30610460046</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P21" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,10 +36276,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K22" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L22" t="n">
         <v>319.7573721701981</v>
@@ -36288,16 +36288,16 @@
         <v>347.6333793934838</v>
       </c>
       <c r="N22" t="n">
-        <v>393.4115360268647</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O22" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P22" t="n">
-        <v>234.9570711451104</v>
+        <v>283.5116610044367</v>
       </c>
       <c r="Q22" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36364,13 +36364,13 @@
         <v>455.5901143923319</v>
       </c>
       <c r="M23" t="n">
-        <v>942.0208277134089</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N23" t="n">
-        <v>587.2101431858671</v>
+        <v>609.5096738063052</v>
       </c>
       <c r="O23" t="n">
-        <v>508.053000888219</v>
+        <v>888.8531821509644</v>
       </c>
       <c r="P23" t="n">
         <v>398.7619862193716</v>
@@ -36434,13 +36434,13 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.62350453597705</v>
+        <v>94.62350453597799</v>
       </c>
       <c r="K24" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L24" t="n">
-        <v>370.4021821340063</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M24" t="n">
         <v>451.7942679013291</v>
@@ -36522,10 +36522,10 @@
         <v>319.7573721701981</v>
       </c>
       <c r="M25" t="n">
-        <v>347.6333793934838</v>
+        <v>396.1879692528106</v>
       </c>
       <c r="N25" t="n">
-        <v>393.4115360268646</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O25" t="n">
         <v>302.3531302226397</v>
@@ -36592,7 +36592,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K26" t="n">
         <v>337.1912865554004</v>
@@ -36601,19 +36601,19 @@
         <v>455.5901143923319</v>
       </c>
       <c r="M26" t="n">
-        <v>747.7986426889919</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N26" t="n">
-        <v>989.6487598248955</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O26" t="n">
-        <v>508.053000888219</v>
+        <v>789.2603684996639</v>
       </c>
       <c r="P26" t="n">
-        <v>398.7619862193716</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q26" t="n">
-        <v>250.7943048037194</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R26" t="n">
         <v>59.61319854222472</v>
@@ -36677,10 +36677,10 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L27" t="n">
-        <v>370.4021821340064</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M27" t="n">
-        <v>451.7942679013291</v>
+        <v>451.79426790133</v>
       </c>
       <c r="N27" t="n">
         <v>478.3061046004591</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>86.24953899611862</v>
+        <v>86.24953899611802</v>
       </c>
       <c r="K28" t="n">
-        <v>246.7187819273719</v>
+        <v>246.7187819273713</v>
       </c>
       <c r="L28" t="n">
-        <v>360.4284945532505</v>
+        <v>360.4284945532499</v>
       </c>
       <c r="M28" t="n">
-        <v>388.3045017765362</v>
+        <v>388.3045017765356</v>
       </c>
       <c r="N28" t="n">
-        <v>385.5280685505925</v>
+        <v>385.5280685505919</v>
       </c>
       <c r="O28" t="n">
-        <v>343.0242526056921</v>
+        <v>343.0242526056916</v>
       </c>
       <c r="P28" t="n">
-        <v>275.6281935281628</v>
+        <v>275.6281935281622</v>
       </c>
       <c r="Q28" t="n">
-        <v>119.065360920946</v>
+        <v>119.0653609209454</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36835,16 +36835,16 @@
         <v>337.1912865554004</v>
       </c>
       <c r="L29" t="n">
-        <v>873.2513289427824</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M29" t="n">
-        <v>936.5809677225982</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N29" t="n">
-        <v>552.3018354129113</v>
+        <v>986.8227205929975</v>
       </c>
       <c r="O29" t="n">
-        <v>508.053000888219</v>
+        <v>888.8531821509644</v>
       </c>
       <c r="P29" t="n">
         <v>398.7619862193716</v>
@@ -36911,13 +36911,13 @@
         <v>94.62350453597705</v>
       </c>
       <c r="K30" t="n">
-        <v>240.6709080609577</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L30" t="n">
         <v>370.4021821340053</v>
       </c>
       <c r="M30" t="n">
-        <v>451.7942679013291</v>
+        <v>451.79426790133</v>
       </c>
       <c r="N30" t="n">
         <v>478.3061046004591</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>86.24953899611862</v>
+        <v>86.24953899611802</v>
       </c>
       <c r="K31" t="n">
-        <v>246.7187819273719</v>
+        <v>246.7187819273713</v>
       </c>
       <c r="L31" t="n">
-        <v>360.4284945532505</v>
+        <v>360.4284945532499</v>
       </c>
       <c r="M31" t="n">
-        <v>388.3045017765362</v>
+        <v>388.3045017765356</v>
       </c>
       <c r="N31" t="n">
-        <v>385.5280685505925</v>
+        <v>385.5280685505919</v>
       </c>
       <c r="O31" t="n">
-        <v>343.0242526056921</v>
+        <v>343.0242526056916</v>
       </c>
       <c r="P31" t="n">
-        <v>275.6281935281628</v>
+        <v>275.6281935281622</v>
       </c>
       <c r="Q31" t="n">
-        <v>119.065360920946</v>
+        <v>119.0653609209454</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,16 +37069,16 @@
         <v>190.7870009687125</v>
       </c>
       <c r="K32" t="n">
-        <v>661.3366991265651</v>
+        <v>622.2226457763887</v>
       </c>
       <c r="L32" t="n">
-        <v>470.0258718342796</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M32" t="n">
-        <v>988.434649323059</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N32" t="n">
-        <v>552.3018354129113</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O32" t="n">
         <v>508.053000888219</v>
@@ -37090,7 +37090,7 @@
         <v>250.7943048037194</v>
       </c>
       <c r="R32" t="n">
-        <v>59.61319854222472</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37163,10 +37163,10 @@
         <v>415.1124034525805</v>
       </c>
       <c r="P33" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859631</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.2338966127279</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>88.09087834787289</v>
+        <v>88.09087834787218</v>
       </c>
       <c r="K34" t="n">
-        <v>248.5601212791262</v>
+        <v>248.5601212791255</v>
       </c>
       <c r="L34" t="n">
-        <v>362.2698339050048</v>
+        <v>362.269833905004</v>
       </c>
       <c r="M34" t="n">
-        <v>390.1458411282904</v>
+        <v>390.1458411282898</v>
       </c>
       <c r="N34" t="n">
-        <v>387.3694079023467</v>
+        <v>387.369407902346</v>
       </c>
       <c r="O34" t="n">
-        <v>344.8655919574464</v>
+        <v>344.8655919574457</v>
       </c>
       <c r="P34" t="n">
-        <v>277.469532879917</v>
+        <v>277.4695328799164</v>
       </c>
       <c r="Q34" t="n">
-        <v>120.9067002727003</v>
+        <v>120.9067002726996</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,16 +37303,16 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K35" t="n">
-        <v>337.1912865554004</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L35" t="n">
         <v>455.5901143923319</v>
       </c>
       <c r="M35" t="n">
-        <v>538.9211158302265</v>
+        <v>644.5083505793781</v>
       </c>
       <c r="N35" t="n">
         <v>552.3018354129113</v>
@@ -37321,13 +37321,13 @@
         <v>508.053000888219</v>
       </c>
       <c r="P35" t="n">
-        <v>593.6815984946246</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q35" t="n">
         <v>250.7943048037194</v>
       </c>
       <c r="R35" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37394,10 +37394,10 @@
         <v>451.7942679013291</v>
       </c>
       <c r="N36" t="n">
-        <v>478.30610460046</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O36" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525813</v>
       </c>
       <c r="P36" t="n">
         <v>313.6359509859624</v>
@@ -37476,10 +37476,10 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O37" t="n">
-        <v>302.3531302226397</v>
+        <v>341.450151698168</v>
       </c>
       <c r="P37" t="n">
-        <v>274.0540926206312</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q37" t="n">
         <v>78.39423853789363</v>
@@ -37540,16 +37540,16 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K38" t="n">
-        <v>337.1912865554004</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L38" t="n">
         <v>455.5901143923319</v>
       </c>
       <c r="M38" t="n">
-        <v>799.5571479784622</v>
+        <v>644.5083505793781</v>
       </c>
       <c r="N38" t="n">
         <v>552.3018354129113</v>
@@ -37622,7 +37622,7 @@
         <v>94.62350453597705</v>
       </c>
       <c r="K39" t="n">
-        <v>240.6709080609577</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L39" t="n">
         <v>370.4021821340053</v>
@@ -37631,7 +37631,7 @@
         <v>451.7942679013291</v>
       </c>
       <c r="N39" t="n">
-        <v>478.3061046004591</v>
+        <v>478.30610460046</v>
       </c>
       <c r="O39" t="n">
         <v>415.1124034525805</v>
@@ -37713,10 +37713,10 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O40" t="n">
-        <v>341.4501516981618</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P40" t="n">
-        <v>234.9570711451104</v>
+        <v>274.054092620639</v>
       </c>
       <c r="Q40" t="n">
         <v>78.39423853789363</v>
@@ -37856,7 +37856,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.62350453597705</v>
+        <v>94.62350453597743</v>
       </c>
       <c r="K42" t="n">
         <v>240.6709080609567</v>
@@ -37868,7 +37868,7 @@
         <v>451.7942679013291</v>
       </c>
       <c r="N42" t="n">
-        <v>478.3061046004595</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O42" t="n">
         <v>415.1124034525805</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>92.55355323165875</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K43" t="n">
         <v>253.0227961629121</v>
@@ -37944,7 +37944,7 @@
         <v>366.7325087887907</v>
       </c>
       <c r="M43" t="n">
-        <v>394.6085160120763</v>
+        <v>394.6085160120764</v>
       </c>
       <c r="N43" t="n">
         <v>391.8320827861326</v>
@@ -38099,7 +38099,7 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340057</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M45" t="n">
         <v>451.7942679013291</v>
@@ -38114,7 +38114,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,13 +38172,13 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>92.55355323165875</v>
+        <v>92.55355323165877</v>
       </c>
       <c r="K46" t="n">
         <v>253.0227961629121</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7325087887906</v>
+        <v>366.7325087887907</v>
       </c>
       <c r="M46" t="n">
         <v>394.6085160120763</v>
